--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C0109F-C7CF-44EC-933C-47DFE9B96FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21D3D71-7A35-40B2-B816-41827DAB5B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="3345" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="1965" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>Except</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 경로</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1047,15 +1055,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1097,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1106,8 +1120,11 @@
       <c r="I2">
         <v>3</v>
       </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21D3D71-7A35-40B2-B816-41827DAB5B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BE729-E19A-4A46-9675-EF42F4383C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7740" yWindow="1965" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>도끼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>빵</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -102,7 +98,47 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Test</t>
+    <t>나무 도끼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 곡괭이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 검</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 검</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 캘 수 있나?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test/Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test/Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test/Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test/Wood</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1055,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,18 +1134,18 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -1121,49 +1157,115 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
         <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>12</v>
       </c>
     </row>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BE729-E19A-4A46-9675-EF42F4383C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1F499-ABD2-4AA7-A177-A15CE7ED0187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="1965" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="360" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -62,34 +62,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>빵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>보석</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>나무를 밸 수 있다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹을 수 있다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매용</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tool</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Except</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -110,26 +86,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>나무로 만든 검</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌 캘 수 있나?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test/Axe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test/Pickaxe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test/Sword</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -138,7 +94,539 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Test/Wood</t>
+    <t>Wood/Wood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 판</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Board</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로프</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Rope</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Leather</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록 보석</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Jewel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pickaxe</t>
+  </si>
+  <si>
+    <t>Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 물뿌리게</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watering</t>
+  </si>
+  <si>
+    <t>Watering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Watering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 활</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Bow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 화살</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 화살통</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BowBarrel</t>
+  </si>
+  <si>
+    <t>Wood/Wooden_BowBarrel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 스태프</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Staff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 케인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cane</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Cane</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 목걸이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neckless</t>
+  </si>
+  <si>
+    <t>Neckless</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Neckless</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무 반지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Wooden_Ring</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 모자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Leather_Halmet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 갑옷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Leather_Armor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 바지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Pants</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Leather_Pants</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 신발</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Leather_Shoes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 장갑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glove</t>
+  </si>
+  <si>
+    <t>Wood/Leather_Glove</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 망토</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloak</t>
+  </si>
+  <si>
+    <t>Wood/Leather_Cloak</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood/Leather_CloakWithHat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 주머니</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Wood/Leather_Wallet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Stone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단한 나무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/HardenWood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Bone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Fints</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Stone_Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Stone_Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Stone_Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Stone_Arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Bone_Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Bone_Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Bone_Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Bone_Bow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Bone_BowBarrel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Bone_Staff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone/Bone_Neckless</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부싯돌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 칼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 도끼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 곡괭이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌 화살</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈 검</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈 도끼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈 곡괭이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈 활</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈 화살통</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈 스태프</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈 목걸이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Ore</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Ingot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Purple_Jewel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Watering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Bow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Staff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Ring</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Neckless</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Helmet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Armor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Pants</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Shoes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper/Copper_Glove</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 주괴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 원석</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라 보석</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 검</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 도끼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 곡괭이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 물뿌리개</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 활</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 스태프</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 반지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 화살</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 목걸이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 핼맷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 갑옷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 바지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 신발</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리 장갑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1091,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1102,174 +1590,1336 @@
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>64</v>
+      </c>
+      <c r="L26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>64</v>
+      </c>
+      <c r="L27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>64</v>
+      </c>
+      <c r="L28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>64</v>
+      </c>
+      <c r="L29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="F41">
+        <v>64</v>
+      </c>
+      <c r="L41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="F42">
+        <v>64</v>
+      </c>
+      <c r="L42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F43">
+        <v>64</v>
+      </c>
+      <c r="L43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
+      <c r="E44">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>12</v>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>32</v>
+      </c>
+      <c r="L51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
+    <sortCondition ref="A2:A57"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1F499-ABD2-4AA7-A177-A15CE7ED0187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B57302-CA20-45EB-868C-6469B9C389CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="360" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="45" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="160">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -94,42 +94,22 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wood</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 판</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Board</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>로프</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Rope</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Leather</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>초록 보석</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Jewel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Sword</t>
   </si>
   <si>
@@ -137,10 +117,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Sword</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Axe</t>
   </si>
   <si>
@@ -148,10 +124,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Axe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Pickaxe</t>
   </si>
   <si>
@@ -159,10 +131,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Pickaxe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 물뿌리게</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -174,10 +142,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Watering</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 활</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -189,10 +153,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Bow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 화살</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -204,10 +164,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Arrow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 화살통</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -215,10 +171,6 @@
     <t>BowBarrel</t>
   </si>
   <si>
-    <t>Wood/Wooden_BowBarrel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 스태프</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -230,10 +182,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Staff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 케인</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -242,10 +190,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Cane</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 목걸이</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -257,10 +201,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Neckless</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 반지</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -269,18 +209,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Wooden_Ring</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 모자</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Leather_Halmet</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 갑옷</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -292,10 +224,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Leather_Armor</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 바지</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -307,10 +235,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Leather_Pants</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 신발</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -322,10 +246,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood/Leather_Shoes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 장갑</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -333,10 +253,6 @@
     <t>Glove</t>
   </si>
   <si>
-    <t>Wood/Leather_Glove</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 망토</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -344,14 +260,6 @@
     <t>Cloak</t>
   </si>
   <si>
-    <t>Wood/Leather_Cloak</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood/Leather_CloakWithHat</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>가죽 주머니</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -359,82 +267,18 @@
     <t>Wallet</t>
   </si>
   <si>
-    <t>Wood/Leather_Wallet</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>돌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StoneAndBone/Stone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>단단한 나무</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StoneAndBone/HardenWood</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>뼈</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>StoneAndBone/Bone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Fints</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Stone_Sword</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Stone_Axe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Stone_Pickaxe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Stone_Arrow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Bone_Sword</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Bone_Axe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Bone_Pickaxe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Bone_Bow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Bone_BowBarrel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Bone_Staff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone/Bone_Neckless</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>부싯돌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -483,74 +327,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Copper/Copper_Ore</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Ingot</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Purple_Jewel</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Sword</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Axe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Pickaxe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Watering</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Bow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Staff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Ring</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Arrow</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Neckless</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Helmet</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Armor</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Pants</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Shoes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper/Copper_Glove</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>구리 주괴</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -627,6 +403,246 @@
   </si>
   <si>
     <t>Helmet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘 이름</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneAndBone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Ore</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Ingot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purple_Jewel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Watering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Bow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Staff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Ring</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Neckless</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Helmet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Armor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Pants</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Glove</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper_Shoes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Rope</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Jewel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Watering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Bow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_BowBarrel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Staff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Cane</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Neckless</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Ring</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather_Halmet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather_Armor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather_Pants</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather_Shoes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather_Glove</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather_Cloak</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather_CloakWithHat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather_Wallet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardenWood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fints</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone_Arrow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_Sword</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_Pickaxe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_Bow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_BowBarrel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_Staff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone_Neckless</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wooden_Board</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1579,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1590,9 +1606,9 @@
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1627,8 +1643,11 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1648,18 +1667,21 @@
         <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1671,18 +1693,21 @@
         <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1694,18 +1719,21 @@
         <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1717,15 +1745,18 @@
         <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1740,10 +1771,13 @@
         <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1754,7 +1788,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1763,10 +1797,13 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1777,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1786,10 +1823,13 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1800,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1809,21 +1849,24 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1832,21 +1875,24 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1855,21 +1901,24 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1878,21 +1927,24 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1901,21 +1953,24 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1924,21 +1979,24 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1947,21 +2005,24 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1970,21 +2031,24 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1993,21 +2057,24 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2016,21 +2083,24 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2039,21 +2109,24 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2062,21 +2135,24 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2085,21 +2161,24 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2108,21 +2187,24 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2131,21 +2213,24 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2154,21 +2239,24 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2177,18 +2265,21 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -2200,18 +2291,21 @@
         <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -2223,18 +2317,21 @@
         <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -2246,18 +2343,21 @@
         <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -2269,21 +2369,24 @@
         <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2292,21 +2395,24 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2315,21 +2421,24 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2338,21 +2447,24 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2361,21 +2473,24 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2384,21 +2499,24 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2407,21 +2525,24 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -2432,19 +2553,22 @@
       <c r="L36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2453,21 +2577,24 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2476,21 +2603,24 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2499,21 +2629,24 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2522,18 +2655,21 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="M40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -2545,18 +2681,21 @@
         <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -2568,18 +2707,21 @@
         <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -2591,21 +2733,24 @@
         <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2614,21 +2759,24 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2637,21 +2785,24 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2660,21 +2811,24 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2683,21 +2837,24 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2706,21 +2863,24 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2729,21 +2889,24 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2752,21 +2915,24 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2775,21 +2941,24 @@
         <v>32</v>
       </c>
       <c r="L51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2798,21 +2967,24 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -2821,21 +2993,24 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -2844,21 +3019,24 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -2867,21 +3045,24 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -2890,21 +3071,24 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="M56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -2913,7 +3097,10 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>135</v>
+        <v>103</v>
+      </c>
+      <c r="M57" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B57302-CA20-45EB-868C-6469B9C389CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E5B2E-653C-43EC-BDF0-9069DE13645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7650" yWindow="45" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>아이콘 경로</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 도끼</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -406,19 +402,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Wood</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>아이콘 이름</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoneAndBone</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Copper</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1595,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1606,9 +1590,9 @@
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1641,21 +1625,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1667,21 +1648,18 @@
         <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1693,21 +1671,18 @@
         <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1719,21 +1694,18 @@
         <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1745,18 +1717,15 @@
         <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1771,24 +1740,21 @@
         <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1797,24 +1763,21 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1823,24 +1786,21 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1849,25 +1809,22 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
@@ -1875,24 +1832,21 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1901,24 +1855,21 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1927,25 +1878,22 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -1953,24 +1901,21 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
-      </c>
-      <c r="M13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1979,25 +1924,22 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
@@ -2005,24 +1947,21 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>100</v>
-      </c>
-      <c r="M15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2031,25 +1970,22 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
@@ -2057,24 +1993,21 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
-      </c>
-      <c r="M17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2083,24 +2016,21 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
-      </c>
-      <c r="M18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2109,24 +2039,21 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2135,24 +2062,21 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2161,25 +2085,22 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
       <c r="E22">
         <v>1</v>
       </c>
@@ -2187,25 +2108,22 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
@@ -2213,25 +2131,22 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>100</v>
-      </c>
-      <c r="M23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
@@ -2239,25 +2154,22 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
       <c r="E25">
         <v>1</v>
       </c>
@@ -2265,21 +2177,18 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -2291,21 +2200,18 @@
         <v>64</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
-      </c>
-      <c r="M26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -2317,21 +2223,18 @@
         <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>102</v>
-      </c>
-      <c r="M27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -2343,21 +2246,18 @@
         <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
-      </c>
-      <c r="M28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -2369,24 +2269,21 @@
         <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>102</v>
-      </c>
-      <c r="M29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2395,24 +2292,21 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
-      </c>
-      <c r="M30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2421,24 +2315,21 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>102</v>
-      </c>
-      <c r="M31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2447,24 +2338,21 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
-      </c>
-      <c r="M32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2473,24 +2361,21 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
-      </c>
-      <c r="M33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2499,24 +2384,21 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
-      </c>
-      <c r="M34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2525,24 +2407,21 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>102</v>
-      </c>
-      <c r="M35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -2551,24 +2430,21 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>102</v>
-      </c>
-      <c r="M36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2577,24 +2453,21 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>102</v>
-      </c>
-      <c r="M37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2603,24 +2476,21 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>102</v>
-      </c>
-      <c r="M38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2629,24 +2499,21 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2655,21 +2522,18 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
-      </c>
-      <c r="M40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -2681,21 +2545,18 @@
         <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>103</v>
-      </c>
-      <c r="M41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -2707,21 +2568,18 @@
         <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>103</v>
-      </c>
-      <c r="M42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -2733,24 +2591,21 @@
         <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>103</v>
-      </c>
-      <c r="M43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2761,22 +2616,19 @@
       <c r="L44" t="s">
         <v>103</v>
       </c>
-      <c r="M44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -2785,24 +2637,21 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>103</v>
-      </c>
-      <c r="M45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2811,24 +2660,21 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>103</v>
-      </c>
-      <c r="M46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -2837,24 +2683,21 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
-      </c>
-      <c r="M47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -2863,24 +2706,21 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>103</v>
-      </c>
-      <c r="M48" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2889,24 +2729,21 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>103</v>
-      </c>
-      <c r="M49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2915,24 +2752,21 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>103</v>
-      </c>
-      <c r="M50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2941,24 +2775,21 @@
         <v>32</v>
       </c>
       <c r="L51" t="s">
-        <v>103</v>
-      </c>
-      <c r="M51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2967,24 +2798,21 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>103</v>
-      </c>
-      <c r="M52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -2993,24 +2821,21 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>103</v>
-      </c>
-      <c r="M53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -3019,24 +2844,21 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>103</v>
-      </c>
-      <c r="M54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -3045,24 +2867,21 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>103</v>
-      </c>
-      <c r="M55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -3071,24 +2890,21 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>103</v>
-      </c>
-      <c r="M56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -3097,10 +2913,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>103</v>
-      </c>
-      <c r="M57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95E5B2E-653C-43EC-BDF0-9069DE13645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520787C8-CE87-4E1A-A351-490A441FCF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="45" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12750" yWindow="675" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="169">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -628,6 +628,52 @@
   <si>
     <t>Wooden_Board</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕무 씨앗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SugarBeet_seed</t>
+  </si>
+  <si>
+    <t>SugarBeet_normal</t>
+  </si>
+  <si>
+    <t>호박</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pumpkin_seed</t>
+  </si>
+  <si>
+    <t>Pumpkin_normal</t>
+  </si>
+  <si>
+    <t>포도 씨앗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박 씨앗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grape_seed</t>
+  </si>
+  <si>
+    <t>Grape_normal</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2916,6 +2962,144 @@
         <v>115</v>
       </c>
     </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>64</v>
+      </c>
+      <c r="L58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>64</v>
+      </c>
+      <c r="L59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>64</v>
+      </c>
+      <c r="L60" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>64</v>
+      </c>
+      <c r="L61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>64</v>
+      </c>
+      <c r="L62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>64</v>
+      </c>
+      <c r="L63" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520787C8-CE87-4E1A-A351-490A441FCF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329E318-22E1-4A90-BD62-96FF7DC1DF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="675" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="900" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -628,52 +628,6 @@
   <si>
     <t>Wooden_Board</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탕무 씨앗</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사탕무</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seed</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SugarBeet_seed</t>
-  </si>
-  <si>
-    <t>SugarBeet_normal</t>
-  </si>
-  <si>
-    <t>호박</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pumpkin_seed</t>
-  </si>
-  <si>
-    <t>Pumpkin_normal</t>
-  </si>
-  <si>
-    <t>포도 씨앗</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박 씨앗</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>포도</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grape_seed</t>
-  </si>
-  <si>
-    <t>Grape_normal</t>
   </si>
 </sst>
 </file>
@@ -1625,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2962,144 +2916,6 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>64</v>
-      </c>
-      <c r="L58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>157</v>
-      </c>
-      <c r="C59" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>64</v>
-      </c>
-      <c r="L59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" t="s">
-        <v>165</v>
-      </c>
-      <c r="D60" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>64</v>
-      </c>
-      <c r="L60" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>64</v>
-      </c>
-      <c r="L61" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" t="s">
-        <v>158</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>64</v>
-      </c>
-      <c r="L62" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>64</v>
-      </c>
-      <c r="L63" t="s">
-        <v>168</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329E318-22E1-4A90-BD62-96FF7DC1DF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA798A-EC30-4608-97FB-91D3B08676DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="900" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11700" yWindow="930" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="161">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -628,6 +628,24 @@
   <si>
     <t>Wooden_Board</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕무 씨앗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사탕무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SugarBeet_seed</t>
+  </si>
+  <si>
+    <t>SugarBeet_normal</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2916,6 +2934,52 @@
         <v>115</v>
       </c>
     </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>64</v>
+      </c>
+      <c r="L58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>64</v>
+      </c>
+      <c r="L59" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEA798A-EC30-4608-97FB-91D3B08676DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55495112-5F7E-4A74-BE47-EE00A1185C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="930" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11145" yWindow="1335" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="186">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -646,6 +646,97 @@
   </si>
   <si>
     <t>SugarBeet_normal</t>
+  </si>
+  <si>
+    <t>기본 물뿌리개</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 곡괭이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 검</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 도끼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 활</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 호미</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 삽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 낫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 낚시대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watering</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shovel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sickle</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishingRod</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartWeapon_Watering</t>
+  </si>
+  <si>
+    <t>StartWeapon_Pickaxe</t>
+  </si>
+  <si>
+    <t>StartWeapon_Sword</t>
+  </si>
+  <si>
+    <t>StartWeapon_Axe</t>
+  </si>
+  <si>
+    <t>StartWeapon_Bow</t>
+  </si>
+  <si>
+    <t>StartWeapon_Hoe</t>
+  </si>
+  <si>
+    <t>StartWeapon_Shovel</t>
+  </si>
+  <si>
+    <t>StartWeapon_Sickle</t>
+  </si>
+  <si>
+    <t>StartWeapon_FishingRod</t>
   </si>
 </sst>
 </file>
@@ -1597,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2980,6 +3071,213 @@
         <v>159</v>
       </c>
     </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55495112-5F7E-4A74-BE47-EE00A1185C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DFA029-3BF3-4371-A873-D74E578EE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11145" yWindow="1335" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="194">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -737,6 +737,34 @@
   </si>
   <si>
     <t>StartWeapon_FishingRod</t>
+  </si>
+  <si>
+    <t>호박</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>포도 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pumpkin_normal</t>
+  </si>
+  <si>
+    <t>Pumpkin_seed</t>
+  </si>
+  <si>
+    <t>Grape_normal</t>
+  </si>
+  <si>
+    <t>Grape_seed</t>
   </si>
 </sst>
 </file>
@@ -1688,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3278,6 +3306,98 @@
         <v>185</v>
       </c>
     </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>64</v>
+      </c>
+      <c r="L69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>64</v>
+      </c>
+      <c r="L70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>64</v>
+      </c>
+      <c r="L71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>64</v>
+      </c>
+      <c r="L72" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DFA029-3BF3-4371-A873-D74E578EE0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866AFEA9-42C2-4345-B6F6-C698BDF8FB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11145" yWindow="1335" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="199">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -765,6 +765,24 @@
   </si>
   <si>
     <t>Grape_seed</t>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedAppleTree_Seed</t>
+  </si>
+  <si>
+    <t>RedApple</t>
+  </si>
+  <si>
+    <t>TreeSeed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1716,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3398,6 +3416,52 @@
         <v>193</v>
       </c>
     </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>64</v>
+      </c>
+      <c r="L73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>64</v>
+      </c>
+      <c r="L74" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866AFEA9-42C2-4345-B6F6-C698BDF8FB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA2987C-A91C-448B-8320-D74006398655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="1335" windowWidth="16320" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="303">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -782,6 +782,397 @@
   </si>
   <si>
     <t>TreeSeed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대파</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대파 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루베리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루베리 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜리플라워</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜리플라워 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로콜리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로콜리 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Strawberry_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenonion</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Radish</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Potato</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenonion_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potato_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Onion_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carrot_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blueberry_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radish_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cabbage_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheat_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cauliflower_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broccoli_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해바라기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해바라기 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥수수 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란 파프리카</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란 파프리카 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록 파프리카</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록 파프리카 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 파프리카</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 파프리카 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>용과</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>용과 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수박 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오이 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파인애플</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파인애플 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두콩</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두콩 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 작물</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 작물 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Sunflower</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>YelloPaprika</t>
+  </si>
+  <si>
+    <t>GreenPaprika</t>
+  </si>
+  <si>
+    <t>RedPaprika</t>
+  </si>
+  <si>
+    <t>Dragonfruit</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
+    <t>Bluecrops</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Tomato_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sunflower_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pepper_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corn_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>YelloPaprika_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreenPaprika_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedPaprika_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonfruit_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watermelon_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cucumber_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggplant_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pineapple_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pea_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bluecrops_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice_Seed</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1734,10 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3462,6 +3853,1202 @@
         <v>196</v>
       </c>
     </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>64</v>
+      </c>
+      <c r="L75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>64</v>
+      </c>
+      <c r="L76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>64</v>
+      </c>
+      <c r="L77" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>64</v>
+      </c>
+      <c r="L78" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>64</v>
+      </c>
+      <c r="L79" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>64</v>
+      </c>
+      <c r="L80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>64</v>
+      </c>
+      <c r="L81" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>64</v>
+      </c>
+      <c r="L82" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>64</v>
+      </c>
+      <c r="L83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>64</v>
+      </c>
+      <c r="L84" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>64</v>
+      </c>
+      <c r="L85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>210</v>
+      </c>
+      <c r="C86" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" t="s">
+        <v>158</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>64</v>
+      </c>
+      <c r="L86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>64</v>
+      </c>
+      <c r="L87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" t="s">
+        <v>158</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>64</v>
+      </c>
+      <c r="L88" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>64</v>
+      </c>
+      <c r="L89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>214</v>
+      </c>
+      <c r="C90" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" t="s">
+        <v>158</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>64</v>
+      </c>
+      <c r="L90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>64</v>
+      </c>
+      <c r="L91" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" t="s">
+        <v>158</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>64</v>
+      </c>
+      <c r="L92" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C93" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>64</v>
+      </c>
+      <c r="L93" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>64</v>
+      </c>
+      <c r="L94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>64</v>
+      </c>
+      <c r="L95" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>64</v>
+      </c>
+      <c r="L96" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>243</v>
+      </c>
+      <c r="C97" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>64</v>
+      </c>
+      <c r="L97" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>244</v>
+      </c>
+      <c r="D98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>64</v>
+      </c>
+      <c r="L98" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" t="s">
+        <v>245</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>64</v>
+      </c>
+      <c r="L99" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>246</v>
+      </c>
+      <c r="C100" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>64</v>
+      </c>
+      <c r="L100" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>64</v>
+      </c>
+      <c r="L101" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" t="s">
+        <v>248</v>
+      </c>
+      <c r="D102" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>64</v>
+      </c>
+      <c r="L102" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" t="s">
+        <v>249</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>64</v>
+      </c>
+      <c r="L103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" t="s">
+        <v>250</v>
+      </c>
+      <c r="D104" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>64</v>
+      </c>
+      <c r="L104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" t="s">
+        <v>251</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>64</v>
+      </c>
+      <c r="L105" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>252</v>
+      </c>
+      <c r="C106" t="s">
+        <v>252</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>64</v>
+      </c>
+      <c r="L106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>253</v>
+      </c>
+      <c r="C107" t="s">
+        <v>253</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>64</v>
+      </c>
+      <c r="L107" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" t="s">
+        <v>254</v>
+      </c>
+      <c r="D108" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>64</v>
+      </c>
+      <c r="L108" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" t="s">
+        <v>255</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>64</v>
+      </c>
+      <c r="L109" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>256</v>
+      </c>
+      <c r="C110" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>64</v>
+      </c>
+      <c r="L110" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>257</v>
+      </c>
+      <c r="C111" t="s">
+        <v>257</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>64</v>
+      </c>
+      <c r="L111" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" t="s">
+        <v>258</v>
+      </c>
+      <c r="D112" t="s">
+        <v>158</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>64</v>
+      </c>
+      <c r="L112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>259</v>
+      </c>
+      <c r="C113" t="s">
+        <v>259</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>64</v>
+      </c>
+      <c r="L113" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" t="s">
+        <v>260</v>
+      </c>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>64</v>
+      </c>
+      <c r="L114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" t="s">
+        <v>261</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>64</v>
+      </c>
+      <c r="L115" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" t="s">
+        <v>262</v>
+      </c>
+      <c r="D116" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>64</v>
+      </c>
+      <c r="L116" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>64</v>
+      </c>
+      <c r="L117" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>64</v>
+      </c>
+      <c r="L118" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>265</v>
+      </c>
+      <c r="C119" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>64</v>
+      </c>
+      <c r="L119" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>266</v>
+      </c>
+      <c r="C120" t="s">
+        <v>266</v>
+      </c>
+      <c r="D120" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>64</v>
+      </c>
+      <c r="L120" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" t="s">
+        <v>267</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>64</v>
+      </c>
+      <c r="L121" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" t="s">
+        <v>268</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>64</v>
+      </c>
+      <c r="L122" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" t="s">
+        <v>269</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>64</v>
+      </c>
+      <c r="L123" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>64</v>
+      </c>
+      <c r="L124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>64</v>
+      </c>
+      <c r="L125" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>64</v>
+      </c>
+      <c r="L126" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA2987C-A91C-448B-8320-D74006398655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873A002D-983D-49C5-AE65-8DA9911EC125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14355" yWindow="735" windowWidth="12870" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="327">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1173,6 +1173,92 @@
   </si>
   <si>
     <t>Rice_Seed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApricotTree_Seed</t>
+  </si>
+  <si>
+    <t>Apricot</t>
+  </si>
+  <si>
+    <t>PeachTree_Seed</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜지 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BananaTree_Seed</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>MangoTree_Seed</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>OrangeTree_Seed</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>채리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>채리 씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cherry</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CherryTree_Seed</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2125,10 +2211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5049,6 +5135,282 @@
         <v>302</v>
       </c>
     </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127" t="s">
+        <v>303</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>64</v>
+      </c>
+      <c r="L127" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>304</v>
+      </c>
+      <c r="C128" t="s">
+        <v>304</v>
+      </c>
+      <c r="D128" t="s">
+        <v>198</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>64</v>
+      </c>
+      <c r="L128" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>323</v>
+      </c>
+      <c r="C129" t="s">
+        <v>323</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>64</v>
+      </c>
+      <c r="L129" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>324</v>
+      </c>
+      <c r="C130" t="s">
+        <v>324</v>
+      </c>
+      <c r="D130" t="s">
+        <v>198</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>64</v>
+      </c>
+      <c r="L130" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>311</v>
+      </c>
+      <c r="C131" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>64</v>
+      </c>
+      <c r="L131" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" t="s">
+        <v>312</v>
+      </c>
+      <c r="D132" t="s">
+        <v>198</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>64</v>
+      </c>
+      <c r="L132" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" t="s">
+        <v>313</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>64</v>
+      </c>
+      <c r="L133" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>314</v>
+      </c>
+      <c r="C134" t="s">
+        <v>314</v>
+      </c>
+      <c r="D134" t="s">
+        <v>198</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>64</v>
+      </c>
+      <c r="L134" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>315</v>
+      </c>
+      <c r="C135" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>64</v>
+      </c>
+      <c r="L135" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" t="s">
+        <v>316</v>
+      </c>
+      <c r="D136" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>64</v>
+      </c>
+      <c r="L136" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>305</v>
+      </c>
+      <c r="C137" t="s">
+        <v>305</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>64</v>
+      </c>
+      <c r="L137" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" t="s">
+        <v>306</v>
+      </c>
+      <c r="D138" t="s">
+        <v>198</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>64</v>
+      </c>
+      <c r="L138" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873A002D-983D-49C5-AE65-8DA9911EC125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C16E5B-DD2A-4D7D-B5A7-583C4E8B1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="735" windowWidth="12870" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="510" windowWidth="12870" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+      <selection activeCell="M140" sqref="M140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C16E5B-DD2A-4D7D-B5A7-583C4E8B1CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26F08A3-F85F-45B7-A56C-ED57B4A5D475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="510" windowWidth="12870" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15615" yWindow="825" windowWidth="12870" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="359">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1260,6 +1260,118 @@
   <si>
     <t>CherryTree_Seed</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 원석</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 주괴</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파랑 보석</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 검</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 도끼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 곡괭이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 물뿌리개</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 활</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 반지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 화살</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 목걸이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 핼맷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 갑옷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 바지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 신발</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 장갑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron_Ore</t>
+  </si>
+  <si>
+    <t>Iron_Ingot</t>
+  </si>
+  <si>
+    <t>Blue_Jewel</t>
+  </si>
+  <si>
+    <t>Iron_Sword</t>
+  </si>
+  <si>
+    <t>Iron_Axe</t>
+  </si>
+  <si>
+    <t>Iron_Pickaxe</t>
+  </si>
+  <si>
+    <t>Iron_Watering</t>
+  </si>
+  <si>
+    <t>Iron_Bow</t>
+  </si>
+  <si>
+    <t>Iron_Ring</t>
+  </si>
+  <si>
+    <t>Iron_Arrow</t>
+  </si>
+  <si>
+    <t>Iron_Neckless</t>
+  </si>
+  <si>
+    <t>Iron_Helmet</t>
+  </si>
+  <si>
+    <t>Iron_Armor</t>
+  </si>
+  <si>
+    <t>Iron_Pants</t>
+  </si>
+  <si>
+    <t>Iron_Shoes</t>
+  </si>
+  <si>
+    <t>Iron_Glove</t>
   </si>
 </sst>
 </file>
@@ -2211,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M140" sqref="M140"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L154" sqref="L154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5411,6 +5523,374 @@
         <v>309</v>
       </c>
     </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>327</v>
+      </c>
+      <c r="C139" t="s">
+        <v>327</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>64</v>
+      </c>
+      <c r="L139" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>328</v>
+      </c>
+      <c r="C140" t="s">
+        <v>328</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>64</v>
+      </c>
+      <c r="L140" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>329</v>
+      </c>
+      <c r="C141" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>64</v>
+      </c>
+      <c r="L141" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>330</v>
+      </c>
+      <c r="C142" t="s">
+        <v>330</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>331</v>
+      </c>
+      <c r="C143" t="s">
+        <v>331</v>
+      </c>
+      <c r="D143" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>332</v>
+      </c>
+      <c r="C144" t="s">
+        <v>332</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>333</v>
+      </c>
+      <c r="C145" t="s">
+        <v>333</v>
+      </c>
+      <c r="D145" t="s">
+        <v>29</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="L145" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>334</v>
+      </c>
+      <c r="C146" t="s">
+        <v>334</v>
+      </c>
+      <c r="D146" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>335</v>
+      </c>
+      <c r="C147" t="s">
+        <v>335</v>
+      </c>
+      <c r="D147" t="s">
+        <v>47</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>336</v>
+      </c>
+      <c r="C148" t="s">
+        <v>336</v>
+      </c>
+      <c r="D148" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>32</v>
+      </c>
+      <c r="L148" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>337</v>
+      </c>
+      <c r="C149" t="s">
+        <v>337</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>338</v>
+      </c>
+      <c r="C150" t="s">
+        <v>338</v>
+      </c>
+      <c r="D150" t="s">
+        <v>96</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>339</v>
+      </c>
+      <c r="C151" t="s">
+        <v>339</v>
+      </c>
+      <c r="D151" t="s">
+        <v>50</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>340</v>
+      </c>
+      <c r="C152" t="s">
+        <v>340</v>
+      </c>
+      <c r="D152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="L152" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>341</v>
+      </c>
+      <c r="C153" t="s">
+        <v>341</v>
+      </c>
+      <c r="D153" t="s">
+        <v>56</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>342</v>
+      </c>
+      <c r="C154" t="s">
+        <v>342</v>
+      </c>
+      <c r="D154" t="s">
+        <v>59</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26F08A3-F85F-45B7-A56C-ED57B4A5D475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEBCA6-D740-40E9-8709-5EA3B12D8117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15615" yWindow="825" windowWidth="12870" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="361">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1372,6 +1372,14 @@
   </si>
   <si>
     <t>Iron_Glove</t>
+  </si>
+  <si>
+    <t>사정거리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2323,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L154" sqref="L154"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2334,7 +2342,7 @@
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -2354,25 +2362,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M1" t="s">
+        <v>360</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2391,11 +2405,20 @@
       <c r="F2">
         <v>64</v>
       </c>
-      <c r="L2" t="s">
+      <c r="G2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2414,11 +2437,20 @@
       <c r="F3">
         <v>64</v>
       </c>
-      <c r="L3" t="s">
+      <c r="G3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2437,11 +2469,20 @@
       <c r="F4">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="G4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2460,11 +2501,20 @@
       <c r="F5">
         <v>64</v>
       </c>
-      <c r="L5" t="s">
+      <c r="G5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2483,11 +2533,20 @@
       <c r="F6">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="G6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2506,11 +2565,20 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="G7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2529,11 +2597,20 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="G8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2552,11 +2629,20 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="G9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2575,11 +2661,20 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="G10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2598,11 +2693,20 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="G11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2621,11 +2725,20 @@
       <c r="F12">
         <v>32</v>
       </c>
-      <c r="L12" t="s">
+      <c r="G12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2644,11 +2757,20 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="L13" t="s">
+      <c r="G13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2667,11 +2789,20 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
+      <c r="G14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2690,11 +2821,20 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
+      <c r="G15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2713,11 +2853,20 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
+      <c r="G16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2736,11 +2885,20 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
+      <c r="G17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2759,11 +2917,20 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="L18" t="s">
+      <c r="G18" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2782,11 +2949,20 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="L19" t="s">
+      <c r="G19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2805,11 +2981,20 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="L20" t="s">
+      <c r="G20" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2828,11 +3013,20 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="L21" t="s">
+      <c r="G21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2851,11 +3045,20 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="L22" t="s">
+      <c r="G22" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2874,11 +3077,20 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="L23" t="s">
+      <c r="G23" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2897,11 +3109,20 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
+      <c r="G24" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2920,11 +3141,20 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
+      <c r="G25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2943,11 +3173,20 @@
       <c r="F26">
         <v>64</v>
       </c>
-      <c r="L26" t="s">
+      <c r="G26" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2966,11 +3205,20 @@
       <c r="F27">
         <v>64</v>
       </c>
-      <c r="L27" t="s">
+      <c r="G27" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2989,11 +3237,20 @@
       <c r="F28">
         <v>64</v>
       </c>
-      <c r="L28" t="s">
+      <c r="G28" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3012,11 +3269,20 @@
       <c r="F29">
         <v>64</v>
       </c>
-      <c r="L29" t="s">
+      <c r="G29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3035,11 +3301,20 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="L30" t="s">
+      <c r="G30" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3058,11 +3333,20 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="L31" t="s">
+      <c r="G31" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3081,11 +3365,20 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="L32" t="s">
+      <c r="G32" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3104,11 +3397,20 @@
       <c r="F33">
         <v>32</v>
       </c>
-      <c r="L33" t="s">
+      <c r="G33" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3127,11 +3429,20 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="L34" t="s">
+      <c r="G34" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3150,11 +3461,20 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="L35" t="s">
+      <c r="G35" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3173,11 +3493,20 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="L36" t="s">
+      <c r="G36" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3196,11 +3525,20 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="L37" t="s">
+      <c r="G37" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3219,11 +3557,20 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="L38" t="s">
+      <c r="G38" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3242,11 +3589,20 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="L39" t="s">
+      <c r="G39" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3265,11 +3621,20 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="L40" t="s">
+      <c r="G40" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3288,11 +3653,20 @@
       <c r="F41">
         <v>64</v>
       </c>
-      <c r="L41" t="s">
+      <c r="G41" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3311,11 +3685,20 @@
       <c r="F42">
         <v>64</v>
       </c>
-      <c r="L42" t="s">
+      <c r="G42" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3334,11 +3717,20 @@
       <c r="F43">
         <v>64</v>
       </c>
-      <c r="L43" t="s">
+      <c r="G43" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3357,11 +3749,20 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="L44" t="s">
+      <c r="G44" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3380,11 +3781,20 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="L45" t="s">
+      <c r="G45" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3403,11 +3813,20 @@
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="L46" t="s">
+      <c r="G46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3426,11 +3845,20 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="L47" t="s">
+      <c r="G47" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3449,11 +3877,20 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="L48" t="s">
+      <c r="G48" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3472,11 +3909,20 @@
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="L49" t="s">
+      <c r="G49" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3495,11 +3941,20 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="L50" t="s">
+      <c r="G50" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3518,11 +3973,20 @@
       <c r="F51">
         <v>32</v>
       </c>
-      <c r="L51" t="s">
+      <c r="G51" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3541,11 +4005,20 @@
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="L52" t="s">
+      <c r="G52" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3564,11 +4037,20 @@
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="L53" t="s">
+      <c r="G53" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3587,11 +4069,20 @@
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="L54" t="s">
+      <c r="G54" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3610,11 +4101,20 @@
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="L55" t="s">
+      <c r="G55" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3633,11 +4133,20 @@
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="L56" t="s">
+      <c r="G56" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3656,11 +4165,20 @@
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="L57" t="s">
+      <c r="G57" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3679,11 +4197,20 @@
       <c r="F58">
         <v>64</v>
       </c>
-      <c r="L58" t="s">
+      <c r="G58" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3702,11 +4229,20 @@
       <c r="F59">
         <v>64</v>
       </c>
-      <c r="L59" t="s">
+      <c r="G59" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3725,11 +4261,20 @@
       <c r="F60">
         <v>1</v>
       </c>
-      <c r="L60" t="s">
+      <c r="G60" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3748,11 +4293,20 @@
       <c r="F61">
         <v>1</v>
       </c>
-      <c r="L61" t="s">
+      <c r="G61" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3771,11 +4325,20 @@
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="L62" t="s">
+      <c r="G62" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3794,11 +4357,20 @@
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="L63" t="s">
+      <c r="G63" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3817,11 +4389,20 @@
       <c r="F64">
         <v>1</v>
       </c>
-      <c r="L64" t="s">
+      <c r="G64" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3840,11 +4421,20 @@
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="L65" t="s">
+      <c r="G65" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3863,11 +4453,20 @@
       <c r="F66">
         <v>1</v>
       </c>
-      <c r="L66" t="s">
+      <c r="G66" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3886,11 +4485,20 @@
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="L67" t="s">
+      <c r="G67" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3909,11 +4517,20 @@
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="L68" t="s">
+      <c r="G68" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3932,11 +4549,20 @@
       <c r="F69">
         <v>64</v>
       </c>
-      <c r="L69" t="s">
+      <c r="G69" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3955,11 +4581,20 @@
       <c r="F70">
         <v>64</v>
       </c>
-      <c r="L70" t="s">
+      <c r="G70" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3978,11 +4613,20 @@
       <c r="F71">
         <v>64</v>
       </c>
-      <c r="L71" t="s">
+      <c r="G71" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4001,11 +4645,20 @@
       <c r="F72">
         <v>64</v>
       </c>
-      <c r="L72" t="s">
+      <c r="G72" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4024,11 +4677,20 @@
       <c r="F73">
         <v>64</v>
       </c>
-      <c r="L73" t="s">
+      <c r="G73" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4047,11 +4709,20 @@
       <c r="F74">
         <v>64</v>
       </c>
-      <c r="L74" t="s">
+      <c r="G74" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4070,11 +4741,20 @@
       <c r="F75">
         <v>64</v>
       </c>
-      <c r="L75" t="s">
+      <c r="G75" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4093,11 +4773,20 @@
       <c r="F76">
         <v>64</v>
       </c>
-      <c r="L76" t="s">
+      <c r="G76" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4116,11 +4805,20 @@
       <c r="F77">
         <v>64</v>
       </c>
-      <c r="L77" t="s">
+      <c r="G77" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4139,11 +4837,20 @@
       <c r="F78">
         <v>64</v>
       </c>
-      <c r="L78" t="s">
+      <c r="G78" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4162,11 +4869,20 @@
       <c r="F79">
         <v>64</v>
       </c>
-      <c r="L79" t="s">
+      <c r="G79" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4185,11 +4901,20 @@
       <c r="F80">
         <v>64</v>
       </c>
-      <c r="L80" t="s">
+      <c r="G80" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4208,11 +4933,20 @@
       <c r="F81">
         <v>64</v>
       </c>
-      <c r="L81" t="s">
+      <c r="G81" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4231,11 +4965,20 @@
       <c r="F82">
         <v>64</v>
       </c>
-      <c r="L82" t="s">
+      <c r="G82" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4254,11 +4997,20 @@
       <c r="F83">
         <v>64</v>
       </c>
-      <c r="L83" t="s">
+      <c r="G83" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4277,11 +5029,20 @@
       <c r="F84">
         <v>64</v>
       </c>
-      <c r="L84" t="s">
+      <c r="G84" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4300,11 +5061,20 @@
       <c r="F85">
         <v>64</v>
       </c>
-      <c r="L85" t="s">
+      <c r="G85" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4323,11 +5093,20 @@
       <c r="F86">
         <v>64</v>
       </c>
-      <c r="L86" t="s">
+      <c r="G86" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4346,11 +5125,20 @@
       <c r="F87">
         <v>64</v>
       </c>
-      <c r="L87" t="s">
+      <c r="G87" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4369,11 +5157,20 @@
       <c r="F88">
         <v>64</v>
       </c>
-      <c r="L88" t="s">
+      <c r="G88" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4392,11 +5189,20 @@
       <c r="F89">
         <v>64</v>
       </c>
-      <c r="L89" t="s">
+      <c r="G89" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4415,11 +5221,20 @@
       <c r="F90">
         <v>64</v>
       </c>
-      <c r="L90" t="s">
+      <c r="G90" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4438,11 +5253,20 @@
       <c r="F91">
         <v>64</v>
       </c>
-      <c r="L91" t="s">
+      <c r="G91" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4461,11 +5285,20 @@
       <c r="F92">
         <v>64</v>
       </c>
-      <c r="L92" t="s">
+      <c r="G92" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4484,11 +5317,20 @@
       <c r="F93">
         <v>64</v>
       </c>
-      <c r="L93" t="s">
+      <c r="G93" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4507,11 +5349,20 @@
       <c r="F94">
         <v>64</v>
       </c>
-      <c r="L94" t="s">
+      <c r="G94" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4530,11 +5381,20 @@
       <c r="F95">
         <v>64</v>
       </c>
-      <c r="L95" t="s">
+      <c r="G95" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4553,11 +5413,20 @@
       <c r="F96">
         <v>64</v>
       </c>
-      <c r="L96" t="s">
+      <c r="G96" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4576,11 +5445,20 @@
       <c r="F97">
         <v>64</v>
       </c>
-      <c r="L97" t="s">
+      <c r="G97" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4599,11 +5477,20 @@
       <c r="F98">
         <v>64</v>
       </c>
-      <c r="L98" t="s">
+      <c r="G98" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4622,11 +5509,20 @@
       <c r="F99">
         <v>64</v>
       </c>
-      <c r="L99" t="s">
+      <c r="G99" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4645,11 +5541,20 @@
       <c r="F100">
         <v>64</v>
       </c>
-      <c r="L100" t="s">
+      <c r="G100" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4668,11 +5573,20 @@
       <c r="F101">
         <v>64</v>
       </c>
-      <c r="L101" t="s">
+      <c r="G101" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4691,11 +5605,20 @@
       <c r="F102">
         <v>64</v>
       </c>
-      <c r="L102" t="s">
+      <c r="G102" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4714,11 +5637,20 @@
       <c r="F103">
         <v>64</v>
       </c>
-      <c r="L103" t="s">
+      <c r="G103" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4737,11 +5669,20 @@
       <c r="F104">
         <v>64</v>
       </c>
-      <c r="L104" t="s">
+      <c r="G104" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4760,11 +5701,20 @@
       <c r="F105">
         <v>64</v>
       </c>
-      <c r="L105" t="s">
+      <c r="G105" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4783,11 +5733,20 @@
       <c r="F106">
         <v>64</v>
       </c>
-      <c r="L106" t="s">
+      <c r="G106" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4806,11 +5765,20 @@
       <c r="F107">
         <v>64</v>
       </c>
-      <c r="L107" t="s">
+      <c r="G107" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4829,11 +5797,20 @@
       <c r="F108">
         <v>64</v>
       </c>
-      <c r="L108" t="s">
+      <c r="G108" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4852,11 +5829,20 @@
       <c r="F109">
         <v>64</v>
       </c>
-      <c r="L109" t="s">
+      <c r="G109" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4875,11 +5861,20 @@
       <c r="F110">
         <v>64</v>
       </c>
-      <c r="L110" t="s">
+      <c r="G110" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4898,11 +5893,20 @@
       <c r="F111">
         <v>64</v>
       </c>
-      <c r="L111" t="s">
+      <c r="G111" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4921,11 +5925,20 @@
       <c r="F112">
         <v>64</v>
       </c>
-      <c r="L112" t="s">
+      <c r="G112" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4944,11 +5957,20 @@
       <c r="F113">
         <v>64</v>
       </c>
-      <c r="L113" t="s">
+      <c r="G113" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4967,11 +5989,20 @@
       <c r="F114">
         <v>64</v>
       </c>
-      <c r="L114" t="s">
+      <c r="G114" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4990,11 +6021,20 @@
       <c r="F115">
         <v>64</v>
       </c>
-      <c r="L115" t="s">
+      <c r="G115" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5013,11 +6053,20 @@
       <c r="F116">
         <v>64</v>
       </c>
-      <c r="L116" t="s">
+      <c r="G116" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5036,11 +6085,20 @@
       <c r="F117">
         <v>64</v>
       </c>
-      <c r="L117" t="s">
+      <c r="G117" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5059,11 +6117,20 @@
       <c r="F118">
         <v>64</v>
       </c>
-      <c r="L118" t="s">
+      <c r="G118" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5082,11 +6149,20 @@
       <c r="F119">
         <v>64</v>
       </c>
-      <c r="L119" t="s">
+      <c r="G119" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5105,11 +6181,20 @@
       <c r="F120">
         <v>64</v>
       </c>
-      <c r="L120" t="s">
+      <c r="G120" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5128,11 +6213,20 @@
       <c r="F121">
         <v>64</v>
       </c>
-      <c r="L121" t="s">
+      <c r="G121" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5151,11 +6245,20 @@
       <c r="F122">
         <v>64</v>
       </c>
-      <c r="L122" t="s">
+      <c r="G122" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5174,11 +6277,20 @@
       <c r="F123">
         <v>64</v>
       </c>
-      <c r="L123" t="s">
+      <c r="G123" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5197,11 +6309,20 @@
       <c r="F124">
         <v>64</v>
       </c>
-      <c r="L124" t="s">
+      <c r="G124" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5220,11 +6341,20 @@
       <c r="F125">
         <v>64</v>
       </c>
-      <c r="L125" t="s">
+      <c r="G125" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5243,11 +6373,20 @@
       <c r="F126">
         <v>64</v>
       </c>
-      <c r="L126" t="s">
+      <c r="G126" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5266,11 +6405,20 @@
       <c r="F127">
         <v>64</v>
       </c>
-      <c r="L127" t="s">
+      <c r="G127" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5289,11 +6437,20 @@
       <c r="F128">
         <v>64</v>
       </c>
-      <c r="L128" t="s">
+      <c r="G128" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5312,11 +6469,20 @@
       <c r="F129">
         <v>64</v>
       </c>
-      <c r="L129" t="s">
+      <c r="G129" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5335,11 +6501,20 @@
       <c r="F130">
         <v>64</v>
       </c>
-      <c r="L130" t="s">
+      <c r="G130" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5358,11 +6533,20 @@
       <c r="F131">
         <v>64</v>
       </c>
-      <c r="L131" t="s">
+      <c r="G131" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5381,11 +6565,20 @@
       <c r="F132">
         <v>64</v>
       </c>
-      <c r="L132" t="s">
+      <c r="G132" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5404,11 +6597,20 @@
       <c r="F133">
         <v>64</v>
       </c>
-      <c r="L133" t="s">
+      <c r="G133" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5427,11 +6629,20 @@
       <c r="F134">
         <v>64</v>
       </c>
-      <c r="L134" t="s">
+      <c r="G134" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5450,11 +6661,20 @@
       <c r="F135">
         <v>64</v>
       </c>
-      <c r="L135" t="s">
+      <c r="G135" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5473,11 +6693,20 @@
       <c r="F136">
         <v>64</v>
       </c>
-      <c r="L136" t="s">
+      <c r="G136" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5496,11 +6725,20 @@
       <c r="F137">
         <v>64</v>
       </c>
-      <c r="L137" t="s">
+      <c r="G137" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5519,11 +6757,20 @@
       <c r="F138">
         <v>64</v>
       </c>
-      <c r="L138" t="s">
+      <c r="G138" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5542,11 +6789,20 @@
       <c r="F139">
         <v>64</v>
       </c>
-      <c r="L139" t="s">
+      <c r="G139" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5565,11 +6821,20 @@
       <c r="F140">
         <v>64</v>
       </c>
-      <c r="L140" t="s">
+      <c r="G140" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5588,11 +6853,20 @@
       <c r="F141">
         <v>64</v>
       </c>
-      <c r="L141" t="s">
+      <c r="G141" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5611,11 +6885,20 @@
       <c r="F142">
         <v>1</v>
       </c>
-      <c r="L142" t="s">
+      <c r="G142" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5634,11 +6917,20 @@
       <c r="F143">
         <v>1</v>
       </c>
-      <c r="L143" t="s">
+      <c r="G143" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5657,11 +6949,20 @@
       <c r="F144">
         <v>1</v>
       </c>
-      <c r="L144" t="s">
+      <c r="G144" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5680,11 +6981,20 @@
       <c r="F145">
         <v>1</v>
       </c>
-      <c r="L145" t="s">
+      <c r="G145" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5703,11 +7013,20 @@
       <c r="F146">
         <v>1</v>
       </c>
-      <c r="L146" t="s">
+      <c r="G146" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5726,11 +7045,20 @@
       <c r="F147">
         <v>1</v>
       </c>
-      <c r="L147" t="s">
+      <c r="G147" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5749,11 +7077,20 @@
       <c r="F148">
         <v>32</v>
       </c>
-      <c r="L148" t="s">
+      <c r="G148" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5772,11 +7109,20 @@
       <c r="F149">
         <v>1</v>
       </c>
-      <c r="L149" t="s">
+      <c r="G149" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5795,11 +7141,20 @@
       <c r="F150">
         <v>1</v>
       </c>
-      <c r="L150" t="s">
+      <c r="G150" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5818,11 +7173,20 @@
       <c r="F151">
         <v>1</v>
       </c>
-      <c r="L151" t="s">
+      <c r="G151" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5841,11 +7205,20 @@
       <c r="F152">
         <v>1</v>
       </c>
-      <c r="L152" t="s">
+      <c r="G152" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5864,11 +7237,20 @@
       <c r="F153">
         <v>1</v>
       </c>
-      <c r="L153" t="s">
+      <c r="G153" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5887,8 +7269,17 @@
       <c r="F154">
         <v>1</v>
       </c>
-      <c r="L154" t="s">
+      <c r="G154" t="s">
         <v>358</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEBCA6-D740-40E9-8709-5EA3B12D8117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6014E6E-14D1-48A3-9A76-721D8EAE9AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="555" windowWidth="12870" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="383">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1380,6 +1380,83 @@
   <si>
     <t>속도</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰레기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록 캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주황 캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크 캔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날개다랑어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>망둑어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>브림</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>연어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trash</t>
+  </si>
+  <si>
+    <t>RedCan</t>
+  </si>
+  <si>
+    <t>BlueCan</t>
+  </si>
+  <si>
+    <t>GreenCan</t>
+  </si>
+  <si>
+    <t>OrangeCan</t>
+  </si>
+  <si>
+    <t>PinkCan</t>
+  </si>
+  <si>
+    <t>Anchovy</t>
+  </si>
+  <si>
+    <t>Albacore</t>
+  </si>
+  <si>
+    <t>Goby</t>
+  </si>
+  <si>
+    <t>Bream</t>
+  </si>
+  <si>
+    <t>Salmon</t>
   </si>
 </sst>
 </file>
@@ -2331,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7282,6 +7359,358 @@
         <v>1</v>
       </c>
     </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>361</v>
+      </c>
+      <c r="C155" t="s">
+        <v>361</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>64</v>
+      </c>
+      <c r="G155" t="s">
+        <v>372</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>362</v>
+      </c>
+      <c r="C156" t="s">
+        <v>362</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>64</v>
+      </c>
+      <c r="G156" t="s">
+        <v>373</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>363</v>
+      </c>
+      <c r="C157" t="s">
+        <v>363</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>64</v>
+      </c>
+      <c r="G157" t="s">
+        <v>374</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>364</v>
+      </c>
+      <c r="C158" t="s">
+        <v>364</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>64</v>
+      </c>
+      <c r="G158" t="s">
+        <v>375</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>365</v>
+      </c>
+      <c r="C159" t="s">
+        <v>365</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>64</v>
+      </c>
+      <c r="G159" t="s">
+        <v>376</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>366</v>
+      </c>
+      <c r="C160" t="s">
+        <v>366</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>64</v>
+      </c>
+      <c r="G160" t="s">
+        <v>377</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>367</v>
+      </c>
+      <c r="C161" t="s">
+        <v>367</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>64</v>
+      </c>
+      <c r="G161" t="s">
+        <v>378</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>368</v>
+      </c>
+      <c r="C162" t="s">
+        <v>368</v>
+      </c>
+      <c r="D162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>64</v>
+      </c>
+      <c r="G162" t="s">
+        <v>379</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" t="s">
+        <v>369</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>64</v>
+      </c>
+      <c r="G163" t="s">
+        <v>380</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>370</v>
+      </c>
+      <c r="C164" t="s">
+        <v>370</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>64</v>
+      </c>
+      <c r="G164" t="s">
+        <v>381</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>371</v>
+      </c>
+      <c r="C165" t="s">
+        <v>371</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>64</v>
+      </c>
+      <c r="G165" t="s">
+        <v>382</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
     <sortCondition ref="A2:A57"/>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6014E6E-14D1-48A3-9A76-721D8EAE9AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDCA354-D197-43F8-AA64-CCC5C7B6CA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="555" windowWidth="12870" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="386">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -1457,6 +1457,16 @@
   </si>
   <si>
     <t>Salmon</t>
+  </si>
+  <si>
+    <t>화로</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interia</t>
+  </si>
+  <si>
+    <t>Furnace_0</t>
   </si>
 </sst>
 </file>
@@ -2408,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4269,7 +4279,7 @@
         <v>11</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F58">
         <v>64</v>
@@ -4301,7 +4311,7 @@
         <v>158</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <v>64</v>
@@ -4621,7 +4631,7 @@
         <v>11</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F69">
         <v>64</v>
@@ -4653,7 +4663,7 @@
         <v>158</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F70">
         <v>64</v>
@@ -4685,7 +4695,7 @@
         <v>11</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F71">
         <v>64</v>
@@ -4717,7 +4727,7 @@
         <v>158</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F72">
         <v>64</v>
@@ -4813,7 +4823,7 @@
         <v>11</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F75">
         <v>64</v>
@@ -4845,7 +4855,7 @@
         <v>158</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F76">
         <v>64</v>
@@ -4877,7 +4887,7 @@
         <v>11</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F77">
         <v>64</v>
@@ -4909,7 +4919,7 @@
         <v>158</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>64</v>
@@ -4941,7 +4951,7 @@
         <v>11</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F79">
         <v>64</v>
@@ -4973,7 +4983,7 @@
         <v>158</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F80">
         <v>64</v>
@@ -5005,7 +5015,7 @@
         <v>11</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F81">
         <v>64</v>
@@ -5037,7 +5047,7 @@
         <v>158</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F82">
         <v>64</v>
@@ -5069,7 +5079,7 @@
         <v>11</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F83">
         <v>64</v>
@@ -5101,7 +5111,7 @@
         <v>158</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F84">
         <v>64</v>
@@ -5133,7 +5143,7 @@
         <v>11</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F85">
         <v>64</v>
@@ -5165,7 +5175,7 @@
         <v>158</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F86">
         <v>64</v>
@@ -5197,7 +5207,7 @@
         <v>11</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F87">
         <v>64</v>
@@ -5229,7 +5239,7 @@
         <v>158</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F88">
         <v>64</v>
@@ -5261,7 +5271,7 @@
         <v>11</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F89">
         <v>64</v>
@@ -5293,7 +5303,7 @@
         <v>158</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F90">
         <v>64</v>
@@ -5325,7 +5335,7 @@
         <v>11</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F91">
         <v>64</v>
@@ -5357,7 +5367,7 @@
         <v>158</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F92">
         <v>64</v>
@@ -5389,7 +5399,7 @@
         <v>11</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F93">
         <v>64</v>
@@ -5421,7 +5431,7 @@
         <v>158</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F94">
         <v>64</v>
@@ -5453,7 +5463,7 @@
         <v>11</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F95">
         <v>64</v>
@@ -5485,7 +5495,7 @@
         <v>158</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F96">
         <v>64</v>
@@ -5517,7 +5527,7 @@
         <v>11</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F97">
         <v>64</v>
@@ -5549,7 +5559,7 @@
         <v>158</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F98">
         <v>64</v>
@@ -5581,7 +5591,7 @@
         <v>11</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F99">
         <v>64</v>
@@ -5613,7 +5623,7 @@
         <v>158</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F100">
         <v>64</v>
@@ -5645,7 +5655,7 @@
         <v>11</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F101">
         <v>64</v>
@@ -5677,7 +5687,7 @@
         <v>158</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F102">
         <v>64</v>
@@ -5709,7 +5719,7 @@
         <v>11</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F103">
         <v>64</v>
@@ -5741,7 +5751,7 @@
         <v>158</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F104">
         <v>64</v>
@@ -5773,7 +5783,7 @@
         <v>11</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F105">
         <v>64</v>
@@ -5805,7 +5815,7 @@
         <v>158</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F106">
         <v>64</v>
@@ -5837,7 +5847,7 @@
         <v>11</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F107">
         <v>64</v>
@@ -5869,7 +5879,7 @@
         <v>158</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F108">
         <v>64</v>
@@ -5901,7 +5911,7 @@
         <v>11</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F109">
         <v>64</v>
@@ -5933,7 +5943,7 @@
         <v>158</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F110">
         <v>64</v>
@@ -5965,7 +5975,7 @@
         <v>11</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F111">
         <v>64</v>
@@ -5997,7 +6007,7 @@
         <v>158</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F112">
         <v>64</v>
@@ -6029,7 +6039,7 @@
         <v>11</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F113">
         <v>64</v>
@@ -6061,7 +6071,7 @@
         <v>158</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F114">
         <v>64</v>
@@ -6093,7 +6103,7 @@
         <v>11</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F115">
         <v>64</v>
@@ -6125,7 +6135,7 @@
         <v>158</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F116">
         <v>64</v>
@@ -6157,7 +6167,7 @@
         <v>11</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F117">
         <v>64</v>
@@ -6189,7 +6199,7 @@
         <v>158</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F118">
         <v>64</v>
@@ -6221,7 +6231,7 @@
         <v>11</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="F119">
         <v>64</v>
@@ -6253,7 +6263,7 @@
         <v>158</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F120">
         <v>64</v>
@@ -6285,7 +6295,7 @@
         <v>11</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F121">
         <v>64</v>
@@ -6317,7 +6327,7 @@
         <v>158</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F122">
         <v>64</v>
@@ -6349,7 +6359,7 @@
         <v>11</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F123">
         <v>64</v>
@@ -6381,7 +6391,7 @@
         <v>158</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F124">
         <v>64</v>
@@ -6413,7 +6423,7 @@
         <v>11</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F125">
         <v>64</v>
@@ -6445,7 +6455,7 @@
         <v>158</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F126">
         <v>64</v>
@@ -7708,6 +7718,38 @@
         <v>1</v>
       </c>
       <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>383</v>
+      </c>
+      <c r="C166" t="s">
+        <v>383</v>
+      </c>
+      <c r="D166" t="s">
+        <v>384</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>385</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
         <v>1</v>
       </c>
     </row>

--- a/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
+++ b/Assets/02.Scripts/02.Item/Datas/ItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unity\Become_Celebrity_on_Farm\Assets\02.Scripts\02.Item\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0B5A0E-3DA0-4BD0-B0D8-5E45EB065B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A383E03D-2D97-44B9-8579-1FB9E34195BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="507">
   <si>
     <t>이름</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>보석</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Except</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>나무다</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>나무 판</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -648,42 +640,6 @@
     <t>SugarBeet_normal</t>
   </si>
   <si>
-    <t>기본 물뿌리개</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 곡괭이</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 검</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 도끼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 활</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 호미</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 삽</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 낫</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 낚시대</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Watering</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1467,13 +1423,470 @@
   </si>
   <si>
     <t>Furnace_0</t>
+  </si>
+  <si>
+    <t>모닥불</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonfire Fish_0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무에서 얻은 것이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무를 가공한 것이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>묶는데 쓸 수 있을 것 같다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 가죽이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초록 빛이 나는 보석이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 조잡한 검이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 조잡한 도끼다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌을 캘 수 있을 지 의문이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물이 새지 않게 잘 만들었다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 돌이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌과 섞은 나무다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물 뼈인거 같다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>없습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로워서 사용할 수 있을 거 같다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌로 만든 날카로운 칼이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌로 만든 날카로운 도끼이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌로 만든 날카로운 곡괭이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈로 강화한 검이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈로 강화한 도끼이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈로 강화한 곡괭이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>화로에 구우면 쓸 수 있겠다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라색 빛이 나는 보석이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 만들어진 구리다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리로 만든 튼튼한 검이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리로 만든 튼튼한 도끼다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리로 만든 튼튼한 곡괭이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부는 부식이 안되도록 잘 만들어졌다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 물뿌리개</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아서 교체가 필요해 보인다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 곡괭이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 검</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 도끼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 활</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>호미</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 삽</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡은 낚시대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아서 광질에 어울리지는 않아 보인다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이가 빠졌다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리가 불안하게 흔들린다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅을 경작할 때 사용하기 좋아 보입니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 자란 작물을 수확할 수 있어 보인다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선은 잘 잡힌다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구 나무는 봄과 여름에 자란다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>채리 나무는 봄에 자란다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나 나무는 여름에 자란다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>망고 나무는 여름에 자란다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜지 나무는 여름에 자란다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 나무는 여름에 자란다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>노랗고 달콤하며 부드러운 살구</t>
+  </si>
+  <si>
+    <t>새콤달콤하고 빨간 작은 채리</t>
+  </si>
+  <si>
+    <t>길쭉하고 달콤한 열대 과일 바나나</t>
+  </si>
+  <si>
+    <t>달콤하고 향긋한 열대 과일 망고</t>
+  </si>
+  <si>
+    <t>상큼하고 즙이 많은 오렌지</t>
+  </si>
+  <si>
+    <t>부드럽고 달콤한 복숭아</t>
+  </si>
+  <si>
+    <t>가을에 자라며 속이 꽉 찬 큰 호박</t>
+  </si>
+  <si>
+    <t>가을에 자라는 호박을 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>가을에 자라며 달콤한 알갱이가 모여 있는 포도</t>
+  </si>
+  <si>
+    <t>가을에 자라는 포도를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>단단하고 다양한 요리에 활용하기 좋은 사과</t>
+  </si>
+  <si>
+    <t>가을에 자라는 사과 나무를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 달콤하고 부드러운 딸기</t>
+  </si>
+  <si>
+    <t>봄에 자라는 딸기를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 향긋한 요리에 활용되는 대파</t>
+  </si>
+  <si>
+    <t>봄에 자라는 대파를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 든든한 요리의 재료가 되는 감자</t>
+  </si>
+  <si>
+    <t>봄에 자라는 감자를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 어떤 요리에도 잘 어울리는 양파</t>
+  </si>
+  <si>
+    <t>봄에 자라는 양파를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 아삭하고 달콤한 당근</t>
+  </si>
+  <si>
+    <t>봄에 자라는 당근을 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 작지만 새콤달콤한 블루베리</t>
+  </si>
+  <si>
+    <t>봄에 자라는 블루베리를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 시원한 맛을 내는 무</t>
+  </si>
+  <si>
+    <t>봄에 자라는 무를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 겹겹이 쌓인 푸른 양배추</t>
+  </si>
+  <si>
+    <t>봄에 자라는 양배추를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 봉긋한 하얀 콜리플라워</t>
+  </si>
+  <si>
+    <t>봄에 자라는 콜리플라워를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 가루로 만들어 쓸 수 있는 밀</t>
+  </si>
+  <si>
+    <t>봄에 자라는 밀을 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>봄에 자라며 짙은 녹색의 브로콜리</t>
+  </si>
+  <si>
+    <t>봄에 자라는 브로콜리를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 빨갛게 익는 토마토</t>
+  </si>
+  <si>
+    <t>여름에 자라는 토마토를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 해를 따라 피는 해바라기</t>
+  </si>
+  <si>
+    <t>여름에 자라는 해바라기를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 매콤한 맛을 내는 고추</t>
+  </si>
+  <si>
+    <t>여름에 자라는 고추를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 알갱이가 꽉 찬 옥수수</t>
+  </si>
+  <si>
+    <t>여름에 자라는 옥수수를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 달콤한 노란 파프리카</t>
+  </si>
+  <si>
+    <t>여름에 자라는 노란 파프리카를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 신선한 초록 파프리카</t>
+  </si>
+  <si>
+    <t>여름에 자라는 초록 파프리카를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 색이 진한 빨간 파프리카</t>
+  </si>
+  <si>
+    <t>여름에 자라는 빨간 파프리카를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 독특한 모양의 용과</t>
+  </si>
+  <si>
+    <t>여름에 자라는 용과를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 크고 시원한 수박</t>
+  </si>
+  <si>
+    <t>여름에 자라는 수박을 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 아삭하고 시원한 오이</t>
+  </si>
+  <si>
+    <t>여름에 자라는 오이를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 보라색 길쭉한 가지</t>
+  </si>
+  <si>
+    <t>여름에 자라는 가지를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 새콤달콤한 파인애플</t>
+  </si>
+  <si>
+    <t>여름에 자라는 파인애플을 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 여러 알이 들어 있는 완두콩</t>
+  </si>
+  <si>
+    <t>여름에 자라는 완두콩을 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 신비로운 파란 작물</t>
+  </si>
+  <si>
+    <t>여름에 자라는 파란 작물을 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>여름에 자라며 밥의 주재료가 되는 쌀</t>
+  </si>
+  <si>
+    <t>여름에 자라는 쌀을 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>가을에 땅속에서 자라며 달콤한 설탕을 만들 수 있는 사탕무</t>
+  </si>
+  <si>
+    <t>가을에 자라는 사탕무를 키울 수 있는 씨앗</t>
+  </si>
+  <si>
+    <t>잘 만들어진 철이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란 빛이 나는 보석이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 세심하게 가공해서 만든 검이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 세심하게 가공해서 만든 도끼이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 세심하게 가공해서 만든 곡괭이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>철을 가공해서 만든 물 뿌리개이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>냄새나는 쓰레기다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>작지만 흔하게 잡히는 물고기</t>
+  </si>
+  <si>
+    <t>바다의 힘쎈 물고기</t>
+  </si>
+  <si>
+    <t>바닥에 사는 작은 물고기</t>
+  </si>
+  <si>
+    <t>낚시에 자주 걸리는 물고기</t>
+  </si>
+  <si>
+    <t>맛있는 고급 물고기</t>
+  </si>
+  <si>
+    <t>원석을 구워서 주괴로 만들 수 있습니다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>생선이 달려있는 모닥불이다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,6 +2057,33 @@
       <color rgb="FF090909"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF090909"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF090909"/>
+      <name val="Pretendard"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF090909"/>
+      <name val="Pretendard"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1827,7 +2267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1955,6 +2395,17 @@
       <bottom style="medium">
         <color rgb="FFDFDFDF"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFDFDF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFDFDF"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2086,7 +2537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2096,7 +2547,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2454,110 +2926,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="17.25" thickBot="1">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="21" thickBot="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="21" thickBot="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>64</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
+      <c r="C3" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -2565,12 +3036,9 @@
       <c r="F3" s="2">
         <v>64</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
@@ -2580,21 +3048,20 @@
       <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" ht="21" thickBot="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -2602,12 +3069,9 @@
       <c r="F4" s="2">
         <v>64</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
@@ -2617,21 +3081,20 @@
       <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="3"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+    <row r="5" spans="1:15" ht="21" thickBot="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
@@ -2639,12 +3102,9 @@
       <c r="F5" s="2">
         <v>64</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
@@ -2654,21 +3114,20 @@
       <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="N5" s="3"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
+    <row r="6" spans="1:15" ht="21" thickBot="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>40</v>
@@ -2676,12 +3135,9 @@
       <c r="F6" s="2">
         <v>64</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
@@ -2691,21 +3147,20 @@
       <c r="M6" s="2">
         <v>1.05</v>
       </c>
-      <c r="N6" s="3"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+    <row r="7" spans="1:15" ht="21" thickBot="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
@@ -2713,12 +3168,9 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="G7" t="s">
+        <v>118</v>
+      </c>
       <c r="K7" s="2">
         <v>3</v>
       </c>
@@ -2728,21 +3180,20 @@
       <c r="M7" s="2">
         <v>1.26</v>
       </c>
-      <c r="N7" s="3"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15" ht="21" thickBot="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -2750,12 +3201,9 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
       <c r="K8" s="2">
         <v>3</v>
       </c>
@@ -2765,21 +3213,20 @@
       <c r="M8" s="2">
         <v>0.84</v>
       </c>
-      <c r="N8" s="3"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="9" spans="1:15" ht="21" thickBot="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
@@ -2787,12 +3234,9 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
       <c r="K9" s="2">
         <v>3</v>
       </c>
@@ -2802,21 +3246,20 @@
       <c r="M9" s="2">
         <v>1.05</v>
       </c>
-      <c r="N9" s="3"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:15" ht="21" thickBot="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="2">
         <v>8</v>
@@ -2824,12 +3267,9 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="G10" t="s">
+        <v>121</v>
+      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
@@ -2839,21 +3279,20 @@
       <c r="M10" s="2">
         <v>1.05</v>
       </c>
-      <c r="N10" s="3"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:15" ht="21" thickBot="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="2">
         <v>7</v>
@@ -2861,12 +3300,9 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
@@ -2876,21 +3312,20 @@
       <c r="M11" s="2">
         <v>1.05</v>
       </c>
-      <c r="N11" s="3"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:15" ht="21" thickBot="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -2898,12 +3333,9 @@
       <c r="F12" s="2">
         <v>32</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
       <c r="K12" s="2">
         <v>3</v>
       </c>
@@ -2913,21 +3345,20 @@
       <c r="M12" s="2">
         <v>1.05</v>
       </c>
-      <c r="N12" s="3"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="13" spans="1:15" ht="21" thickBot="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
@@ -2935,12 +3366,9 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
@@ -2950,21 +3378,20 @@
       <c r="M13" s="2">
         <v>1.05</v>
       </c>
-      <c r="N13" s="3"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+    <row r="14" spans="1:15" ht="21" thickBot="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="2">
         <v>6</v>
@@ -2972,12 +3399,9 @@
       <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G14" t="s">
+        <v>125</v>
+      </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
@@ -2987,21 +3411,20 @@
       <c r="M14" s="2">
         <v>1.05</v>
       </c>
-      <c r="N14" s="3"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+    <row r="15" spans="1:15" ht="21" thickBot="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
@@ -3009,12 +3432,9 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
@@ -3024,21 +3444,20 @@
       <c r="M15" s="2">
         <v>1.05</v>
       </c>
-      <c r="N15" s="3"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+    <row r="16" spans="1:15" ht="21" thickBot="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
@@ -3046,12 +3465,9 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
@@ -3061,21 +3477,20 @@
       <c r="M16" s="2">
         <v>1.05</v>
       </c>
-      <c r="N16" s="3"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:15" ht="21" thickBot="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>5</v>
@@ -3083,12 +3498,9 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
@@ -3098,21 +3510,20 @@
       <c r="M17" s="2">
         <v>1.05</v>
       </c>
-      <c r="N17" s="3"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="18" spans="1:15" ht="21" thickBot="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>98</v>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
       </c>
       <c r="E18" s="2">
         <v>8</v>
@@ -3120,12 +3531,9 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="G18" t="s">
+        <v>129</v>
+      </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
@@ -3135,21 +3543,20 @@
       <c r="M18" s="2">
         <v>1</v>
       </c>
-      <c r="N18" s="3"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:15" ht="21" thickBot="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="2">
         <v>15</v>
@@ -3157,12 +3564,9 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="G19" t="s">
+        <v>130</v>
+      </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
@@ -3172,21 +3576,20 @@
       <c r="M19" s="2">
         <v>1</v>
       </c>
-      <c r="N19" s="3"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+    <row r="20" spans="1:15" ht="21" thickBot="1">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E20" s="2">
         <v>12</v>
@@ -3194,12 +3597,9 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
@@ -3209,21 +3609,20 @@
       <c r="M20" s="2">
         <v>1</v>
       </c>
-      <c r="N20" s="3"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+    <row r="21" spans="1:15" ht="21" thickBot="1">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" t="s">
         <v>55</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E21" s="2">
         <v>8</v>
@@ -3231,12 +3630,9 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="G21" t="s">
+        <v>132</v>
+      </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
@@ -3246,21 +3642,20 @@
       <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="N21" s="3"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="22" spans="1:15" ht="21" thickBot="1">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="2">
         <v>7</v>
@@ -3268,12 +3663,9 @@
       <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="G22" t="s">
+        <v>133</v>
+      </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
@@ -3283,21 +3675,20 @@
       <c r="M22" s="2">
         <v>1</v>
       </c>
-      <c r="N22" s="3"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+    <row r="23" spans="1:15" ht="21" thickBot="1">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>61</v>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
@@ -3305,12 +3696,9 @@
       <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="G23" t="s">
+        <v>134</v>
+      </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
@@ -3320,21 +3708,20 @@
       <c r="M23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" s="3"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+    <row r="24" spans="1:15" ht="21" thickBot="1">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
       </c>
       <c r="E24" s="2">
         <v>12</v>
@@ -3342,12 +3729,9 @@
       <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
@@ -3357,21 +3741,20 @@
       <c r="M24" s="2">
         <v>1</v>
       </c>
-      <c r="N24" s="3"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="25" spans="1:15" ht="21" thickBot="1">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>63</v>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
       </c>
       <c r="E25" s="2">
         <v>15</v>
@@ -3379,12 +3762,9 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="G25" t="s">
+        <v>136</v>
+      </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
@@ -3394,21 +3774,20 @@
       <c r="M25" s="2">
         <v>1</v>
       </c>
-      <c r="N25" s="3"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+    <row r="26" spans="1:15" ht="21" thickBot="1">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>11</v>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -3416,12 +3795,9 @@
       <c r="F26" s="2">
         <v>64</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="G26" t="s">
+        <v>137</v>
+      </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
@@ -3431,21 +3807,20 @@
       <c r="M26" s="2">
         <v>1.07</v>
       </c>
-      <c r="N26" s="3"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+    <row r="27" spans="1:15" ht="21" thickBot="1">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>11</v>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>3</v>
@@ -3453,12 +3828,9 @@
       <c r="F27" s="2">
         <v>64</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="G27" t="s">
+        <v>138</v>
+      </c>
       <c r="K27" s="2">
         <v>0</v>
       </c>
@@ -3468,21 +3840,20 @@
       <c r="M27" s="2">
         <v>1.05</v>
       </c>
-      <c r="N27" s="3"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+    <row r="28" spans="1:15" ht="21" thickBot="1">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>11</v>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>3</v>
@@ -3490,12 +3861,9 @@
       <c r="F28" s="2">
         <v>64</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
@@ -3505,21 +3873,20 @@
       <c r="M28" s="2">
         <v>1.07</v>
       </c>
-      <c r="N28" s="3"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+    <row r="29" spans="1:15" ht="21" thickBot="1">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>11</v>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
@@ -3527,12 +3894,9 @@
       <c r="F29" s="2">
         <v>64</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
@@ -3542,21 +3906,20 @@
       <c r="M29" s="2">
         <v>1.07</v>
       </c>
-      <c r="N29" s="3"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="30" spans="1:15" ht="21" thickBot="1">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
@@ -3564,12 +3927,9 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="G30" t="s">
+        <v>141</v>
+      </c>
       <c r="K30" s="2">
         <v>5</v>
       </c>
@@ -3579,21 +3939,20 @@
       <c r="M30" s="2">
         <v>1.284</v>
       </c>
-      <c r="N30" s="3"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+    <row r="31" spans="1:15" ht="21" thickBot="1">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>24</v>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
@@ -3601,12 +3960,9 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="G31" t="s">
+        <v>142</v>
+      </c>
       <c r="K31" s="2">
         <v>5</v>
       </c>
@@ -3616,21 +3972,20 @@
       <c r="M31" s="2">
         <v>0.85599999999999998</v>
       </c>
-      <c r="N31" s="3"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+    <row r="32" spans="1:15" ht="21" thickBot="1">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>26</v>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
@@ -3638,12 +3993,9 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="G32" t="s">
+        <v>143</v>
+      </c>
       <c r="K32" s="2">
         <v>5</v>
       </c>
@@ -3653,21 +4005,20 @@
       <c r="M32" s="2">
         <v>1.07</v>
       </c>
-      <c r="N32" s="3"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+    <row r="33" spans="1:15" ht="21" thickBot="1">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>34</v>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -3675,12 +4026,9 @@
       <c r="F33" s="2">
         <v>32</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="G33" t="s">
+        <v>144</v>
+      </c>
       <c r="K33" s="2">
         <v>5</v>
       </c>
@@ -3690,21 +4038,20 @@
       <c r="M33" s="2">
         <v>1.07</v>
       </c>
-      <c r="N33" s="3"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+    <row r="34" spans="1:15" ht="21" thickBot="1">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>21</v>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
       </c>
       <c r="E34" s="2">
         <v>12</v>
@@ -3712,12 +4059,9 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="G34" t="s">
+        <v>145</v>
+      </c>
       <c r="K34" s="2">
         <v>5</v>
       </c>
@@ -3727,21 +4071,20 @@
       <c r="M34" s="2">
         <v>1.284</v>
       </c>
-      <c r="N34" s="3"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+    <row r="35" spans="1:15" ht="21" thickBot="1">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>23</v>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
       </c>
       <c r="E35" s="2">
         <v>12</v>
@@ -3749,12 +4092,9 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
       <c r="K35" s="2">
         <v>5</v>
       </c>
@@ -3764,21 +4104,20 @@
       <c r="M35" s="2">
         <v>0.85599999999999998</v>
       </c>
-      <c r="N35" s="3"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+    <row r="36" spans="1:15" ht="21" thickBot="1">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>25</v>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
       </c>
       <c r="E36" s="2">
         <v>12</v>
@@ -3786,12 +4125,9 @@
       <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="G36" t="s">
+        <v>147</v>
+      </c>
       <c r="K36" s="2">
         <v>5</v>
       </c>
@@ -3801,21 +4137,20 @@
       <c r="M36" s="2">
         <v>1.07</v>
       </c>
-      <c r="N36" s="3"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+    <row r="37" spans="1:15" ht="21" thickBot="1">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>31</v>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
       </c>
       <c r="E37" s="2">
         <v>15</v>
@@ -3823,12 +4158,9 @@
       <c r="F37" s="2">
         <v>1</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="G37" t="s">
+        <v>148</v>
+      </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
@@ -3838,21 +4170,20 @@
       <c r="M37" s="2">
         <v>1.07</v>
       </c>
-      <c r="N37" s="3"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+    <row r="38" spans="1:15" ht="21" thickBot="1">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>37</v>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
       </c>
       <c r="E38" s="2">
         <v>20</v>
@@ -3860,12 +4191,9 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="G38" t="s">
+        <v>149</v>
+      </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
@@ -3875,21 +4203,20 @@
       <c r="M38" s="2">
         <v>1.07</v>
       </c>
-      <c r="N38" s="3"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="39" spans="1:15" ht="21" thickBot="1">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>39</v>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
       </c>
       <c r="E39" s="2">
         <v>15</v>
@@ -3897,12 +4224,9 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="G39" t="s">
+        <v>150</v>
+      </c>
       <c r="K39" s="2">
         <v>0</v>
       </c>
@@ -3912,21 +4236,20 @@
       <c r="M39" s="2">
         <v>1.07</v>
       </c>
-      <c r="N39" s="3"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="40" spans="1:15" ht="21" thickBot="1">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
       </c>
       <c r="E40" s="2">
         <v>10</v>
@@ -3934,12 +4257,9 @@
       <c r="F40" s="2">
         <v>1</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="G40" t="s">
+        <v>151</v>
+      </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
@@ -3949,21 +4269,20 @@
       <c r="M40" s="2">
         <v>1.07</v>
       </c>
-      <c r="N40" s="3"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+    <row r="41" spans="1:15" ht="21" thickBot="1">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>11</v>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
       </c>
       <c r="E41" s="2">
         <v>7</v>
@@ -3971,12 +4290,9 @@
       <c r="F41" s="2">
         <v>64</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
       <c r="K41" s="2">
         <v>0</v>
       </c>
@@ -3986,21 +4302,20 @@
       <c r="M41" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N41" s="3"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+    <row r="42" spans="1:15" ht="21" thickBot="1">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
       </c>
       <c r="E42" s="2">
         <v>15</v>
@@ -4008,12 +4323,9 @@
       <c r="F42" s="2">
         <v>64</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="G42" t="s">
+        <v>99</v>
+      </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
@@ -4023,21 +4335,20 @@
       <c r="M42" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N42" s="3"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+    <row r="43" spans="1:15" ht="21" thickBot="1">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>11</v>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
       </c>
       <c r="E43" s="2">
         <v>80</v>
@@ -4045,12 +4356,9 @@
       <c r="F43" s="2">
         <v>64</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
@@ -4060,21 +4368,20 @@
       <c r="M43" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N43" s="3"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+    <row r="44" spans="1:15" ht="21" thickBot="1">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>22</v>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
       </c>
       <c r="E44" s="2">
         <v>30</v>
@@ -4082,12 +4389,9 @@
       <c r="F44" s="2">
         <v>1</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="G44" t="s">
+        <v>101</v>
+      </c>
       <c r="K44" s="2">
         <v>7</v>
       </c>
@@ -4097,21 +4401,20 @@
       <c r="M44" s="2">
         <v>1.32</v>
       </c>
-      <c r="N44" s="3"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+    <row r="45" spans="1:15" ht="21" thickBot="1">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>24</v>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
       </c>
       <c r="E45" s="2">
         <v>30</v>
@@ -4119,12 +4422,9 @@
       <c r="F45" s="2">
         <v>1</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
       <c r="K45" s="2">
         <v>7</v>
       </c>
@@ -4134,21 +4434,20 @@
       <c r="M45" s="2">
         <v>0.88</v>
       </c>
-      <c r="N45" s="3"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+    <row r="46" spans="1:15" ht="21" thickBot="1">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>26</v>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
       </c>
       <c r="E46" s="2">
         <v>30</v>
@@ -4156,12 +4455,9 @@
       <c r="F46" s="2">
         <v>1</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="G46" t="s">
+        <v>103</v>
+      </c>
       <c r="K46" s="2">
         <v>7</v>
       </c>
@@ -4171,21 +4467,20 @@
       <c r="M46" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N46" s="3"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+    <row r="47" spans="1:15" ht="21" thickBot="1">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>29</v>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
       </c>
       <c r="E47" s="2">
         <v>35</v>
@@ -4193,12 +4488,9 @@
       <c r="F47" s="2">
         <v>1</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
@@ -4208,21 +4500,20 @@
       <c r="M47" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N47" s="3"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+    <row r="48" spans="1:15" ht="21" thickBot="1">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>32</v>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
       </c>
       <c r="E48" s="2">
         <v>40</v>
@@ -4230,12 +4521,9 @@
       <c r="F48" s="2">
         <v>1</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
       <c r="K48" s="2">
         <v>0</v>
       </c>
@@ -4245,21 +4533,20 @@
       <c r="M48" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N48" s="3"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+    <row r="49" spans="1:15" ht="21" thickBot="1">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>40</v>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
       </c>
       <c r="E49" s="2">
         <v>35</v>
@@ -4267,12 +4554,9 @@
       <c r="F49" s="2">
         <v>1</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
       <c r="K49" s="2">
         <v>0</v>
       </c>
@@ -4282,21 +4566,20 @@
       <c r="M49" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N49" s="3"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+    <row r="50" spans="1:15" ht="21" thickBot="1">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>47</v>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
       </c>
       <c r="E50" s="2">
         <v>30</v>
@@ -4304,12 +4587,9 @@
       <c r="F50" s="2">
         <v>1</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="G50" t="s">
+        <v>107</v>
+      </c>
       <c r="K50" s="2">
         <v>0</v>
       </c>
@@ -4319,21 +4599,20 @@
       <c r="M50" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N50" s="3"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+    <row r="51" spans="1:15" ht="21" thickBot="1">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>34</v>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
@@ -4341,12 +4620,9 @@
       <c r="F51" s="2">
         <v>32</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="G51" t="s">
+        <v>108</v>
+      </c>
       <c r="K51" s="2">
         <v>7</v>
       </c>
@@ -4356,21 +4632,20 @@
       <c r="M51" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N51" s="3"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+    <row r="52" spans="1:15" ht="21" thickBot="1">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>44</v>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
       </c>
       <c r="E52" s="2">
         <v>30</v>
@@ -4378,12 +4653,9 @@
       <c r="F52" s="2">
         <v>1</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="G52" t="s">
+        <v>109</v>
+      </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
@@ -4393,21 +4665,20 @@
       <c r="M52" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N52" s="3"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+    <row r="53" spans="1:15" ht="21" thickBot="1">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>96</v>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D53" t="s">
+        <v>94</v>
       </c>
       <c r="E53" s="2">
         <v>40</v>
@@ -4415,12 +4686,9 @@
       <c r="F53" s="2">
         <v>1</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
@@ -4430,21 +4698,20 @@
       <c r="M53" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N53" s="3"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+    <row r="54" spans="1:15" ht="21" thickBot="1">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>50</v>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
       </c>
       <c r="E54" s="2">
         <v>70</v>
@@ -4452,12 +4719,9 @@
       <c r="F54" s="2">
         <v>1</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="G54" t="s">
+        <v>111</v>
+      </c>
       <c r="K54" s="2">
         <v>0</v>
       </c>
@@ -4467,21 +4731,20 @@
       <c r="M54" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N54" s="3"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+    <row r="55" spans="1:15" ht="21" thickBot="1">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>53</v>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" t="s">
+        <v>51</v>
       </c>
       <c r="E55" s="2">
         <v>60</v>
@@ -4489,12 +4752,9 @@
       <c r="F55" s="2">
         <v>1</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
       <c r="K55" s="2">
         <v>0</v>
       </c>
@@ -4504,21 +4764,20 @@
       <c r="M55" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N55" s="3"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+    <row r="56" spans="1:15" ht="21" thickBot="1">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>56</v>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
       </c>
       <c r="E56" s="2">
         <v>40</v>
@@ -4526,12 +4785,9 @@
       <c r="F56" s="2">
         <v>1</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="G56" t="s">
+        <v>114</v>
+      </c>
       <c r="K56" s="2">
         <v>0</v>
       </c>
@@ -4541,21 +4797,20 @@
       <c r="M56" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N56" s="3"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+    <row r="57" spans="1:15" ht="21" thickBot="1">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>59</v>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
       </c>
       <c r="E57" s="2">
         <v>35</v>
@@ -4563,12 +4818,9 @@
       <c r="F57" s="2">
         <v>1</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="G57" t="s">
+        <v>113</v>
+      </c>
       <c r="K57" s="2">
         <v>0</v>
       </c>
@@ -4578,21 +4830,20 @@
       <c r="M57" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N57" s="3"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+    <row r="58" spans="1:15" ht="21" thickBot="1">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="2">
         <v>20</v>
@@ -4600,12 +4851,9 @@
       <c r="F58" s="2">
         <v>64</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="G58" t="s">
+        <v>158</v>
+      </c>
       <c r="K58" s="2">
         <v>0</v>
       </c>
@@ -4615,21 +4863,20 @@
       <c r="M58" s="2">
         <v>1</v>
       </c>
-      <c r="N58" s="3"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+    <row r="59" spans="1:15" ht="21" thickBot="1">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D59" t="s">
         <v>156</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="E59" s="2">
         <v>5</v>
@@ -4637,36 +4884,32 @@
       <c r="F59" s="2">
         <v>64</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" ht="21" thickBot="1">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>405</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D60" t="s">
         <v>159</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2">
-        <v>1</v>
-      </c>
-      <c r="M59" s="2">
-        <v>1</v>
-      </c>
-      <c r="N59" s="3"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
@@ -4674,12 +4917,9 @@
       <c r="F60" s="2">
         <v>1</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="G60" t="s">
+        <v>166</v>
+      </c>
       <c r="K60" s="2">
         <v>0</v>
       </c>
@@ -4689,21 +4929,20 @@
       <c r="M60" s="2">
         <v>1</v>
       </c>
-      <c r="N60" s="3"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+    <row r="61" spans="1:15" ht="21" thickBot="1">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>26</v>
+      <c r="B61" t="s">
+        <v>407</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
       </c>
       <c r="E61" s="2">
         <v>3</v>
@@ -4711,12 +4950,9 @@
       <c r="F61" s="2">
         <v>1</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="G61" t="s">
+        <v>167</v>
+      </c>
       <c r="K61" s="2">
         <v>0</v>
       </c>
@@ -4726,21 +4962,20 @@
       <c r="M61" s="2">
         <v>1</v>
       </c>
-      <c r="N61" s="3"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+    <row r="62" spans="1:15" ht="21" thickBot="1">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>22</v>
+      <c r="B62" t="s">
+        <v>408</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
       </c>
       <c r="E62" s="2">
         <v>3</v>
@@ -4748,12 +4983,9 @@
       <c r="F62" s="2">
         <v>1</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="G62" t="s">
+        <v>168</v>
+      </c>
       <c r="K62" s="2">
         <v>0</v>
       </c>
@@ -4763,21 +4995,20 @@
       <c r="M62" s="2">
         <v>1.2</v>
       </c>
-      <c r="N62" s="3"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+    <row r="63" spans="1:15" ht="21" thickBot="1">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>171</v>
+      <c r="B63" t="s">
+        <v>409</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D63" t="s">
+        <v>160</v>
       </c>
       <c r="E63" s="2">
         <v>3</v>
@@ -4785,12 +5016,9 @@
       <c r="F63" s="2">
         <v>1</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="G63" t="s">
+        <v>169</v>
+      </c>
       <c r="K63" s="2">
         <v>0</v>
       </c>
@@ -4800,21 +5028,20 @@
       <c r="M63" s="2">
         <v>0.8</v>
       </c>
-      <c r="N63" s="3"/>
       <c r="O63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
+    <row r="64" spans="1:15" ht="21" thickBot="1">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>172</v>
+      <c r="B64" t="s">
+        <v>410</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D64" t="s">
+        <v>161</v>
       </c>
       <c r="E64" s="2">
         <v>3</v>
@@ -4822,12 +5049,9 @@
       <c r="F64" s="2">
         <v>1</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="G64" t="s">
+        <v>170</v>
+      </c>
       <c r="K64" s="2">
         <v>0</v>
       </c>
@@ -4837,21 +5061,20 @@
       <c r="M64" s="2">
         <v>1</v>
       </c>
-      <c r="N64" s="3"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>173</v>
+    <row r="65" spans="1:16" ht="21" thickBot="1">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>411</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D65" t="s">
+        <v>162</v>
       </c>
       <c r="E65" s="2">
         <v>3</v>
@@ -4859,12 +5082,9 @@
       <c r="F65" s="2">
         <v>1</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="G65" t="s">
+        <v>171</v>
+      </c>
       <c r="K65" s="2">
         <v>0</v>
       </c>
@@ -4874,21 +5094,20 @@
       <c r="M65" s="2">
         <v>1</v>
       </c>
-      <c r="N65" s="3"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
+    <row r="66" spans="1:16" ht="21" thickBot="1">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>174</v>
+      <c r="B66" t="s">
+        <v>412</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D66" t="s">
+        <v>163</v>
       </c>
       <c r="E66" s="2">
         <v>3</v>
@@ -4896,12 +5115,9 @@
       <c r="F66" s="2">
         <v>1</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
+      <c r="G66" t="s">
+        <v>172</v>
+      </c>
       <c r="K66" s="2">
         <v>0</v>
       </c>
@@ -4911,21 +5127,20 @@
       <c r="M66" s="2">
         <v>1</v>
       </c>
-      <c r="N66" s="3"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
+    <row r="67" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>175</v>
+      <c r="B67" t="s">
+        <v>414</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D67" t="s">
+        <v>164</v>
       </c>
       <c r="E67" s="2">
         <v>3</v>
@@ -4933,12 +5148,9 @@
       <c r="F67" s="2">
         <v>1</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="G67" t="s">
+        <v>173</v>
+      </c>
       <c r="K67" s="2">
         <v>0</v>
       </c>
@@ -4948,21 +5160,20 @@
       <c r="M67" s="2">
         <v>1</v>
       </c>
-      <c r="N67" s="3"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
+      <c r="O67" s="4"/>
+    </row>
+    <row r="68" spans="1:16" ht="21" thickBot="1">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>176</v>
+      <c r="B68" t="s">
+        <v>413</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D68" t="s">
+        <v>165</v>
       </c>
       <c r="E68" s="2">
         <v>5</v>
@@ -4970,12 +5181,9 @@
       <c r="F68" s="2">
         <v>1</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="G68" t="s">
+        <v>174</v>
+      </c>
       <c r="K68" s="2">
         <v>0</v>
       </c>
@@ -4985,21 +5193,21 @@
       <c r="M68" s="2">
         <v>1</v>
       </c>
-      <c r="N68" s="3"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+    </row>
+    <row r="69" spans="1:16" ht="21" thickBot="1">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>11</v>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
       </c>
       <c r="E69" s="2">
         <v>80</v>
@@ -5007,12 +5215,9 @@
       <c r="F69" s="2">
         <v>64</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
+      <c r="G69" t="s">
+        <v>179</v>
+      </c>
       <c r="K69" s="2">
         <v>0</v>
       </c>
@@ -5022,21 +5227,21 @@
       <c r="M69" s="2">
         <v>1</v>
       </c>
-      <c r="N69" s="3"/>
       <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="1:16" ht="21" thickBot="1">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>158</v>
+      <c r="B70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D70" t="s">
+        <v>156</v>
       </c>
       <c r="E70" s="2">
         <v>15</v>
@@ -5044,12 +5249,9 @@
       <c r="F70" s="2">
         <v>64</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="G70" t="s">
+        <v>180</v>
+      </c>
       <c r="K70" s="2">
         <v>0</v>
       </c>
@@ -5059,21 +5261,21 @@
       <c r="M70" s="2">
         <v>1</v>
       </c>
-      <c r="N70" s="3"/>
       <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" ht="21" thickBot="1">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>11</v>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
       </c>
       <c r="E71" s="2">
         <v>20</v>
@@ -5081,12 +5283,9 @@
       <c r="F71" s="2">
         <v>64</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="G71" t="s">
+        <v>181</v>
+      </c>
       <c r="K71" s="2">
         <v>0</v>
       </c>
@@ -5096,21 +5295,21 @@
       <c r="M71" s="2">
         <v>1</v>
       </c>
-      <c r="N71" s="3"/>
       <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="1:16" ht="21" thickBot="1">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>158</v>
+      <c r="B72" t="s">
+        <v>178</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
       </c>
       <c r="E72" s="2">
         <v>20</v>
@@ -5118,12 +5317,9 @@
       <c r="F72" s="2">
         <v>64</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
+      <c r="G72" t="s">
+        <v>182</v>
+      </c>
       <c r="K72" s="2">
         <v>0</v>
       </c>
@@ -5133,21 +5329,21 @@
       <c r="M72" s="2">
         <v>1</v>
       </c>
-      <c r="N72" s="3"/>
       <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="1:16" ht="21" thickBot="1">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>11</v>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
       </c>
       <c r="E73" s="2">
         <v>15</v>
@@ -5155,12 +5351,9 @@
       <c r="F73" s="2">
         <v>64</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
+      <c r="G73" t="s">
+        <v>186</v>
+      </c>
       <c r="K73" s="2">
         <v>0</v>
       </c>
@@ -5170,21 +5363,21 @@
       <c r="M73" s="2">
         <v>1</v>
       </c>
-      <c r="N73" s="3"/>
       <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="1:16" ht="21" thickBot="1">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>198</v>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D74" t="s">
+        <v>187</v>
       </c>
       <c r="E74" s="2">
         <v>10</v>
@@ -5192,12 +5385,9 @@
       <c r="F74" s="2">
         <v>64</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
+      <c r="G74" t="s">
+        <v>185</v>
+      </c>
       <c r="K74" s="2">
         <v>0</v>
       </c>
@@ -5207,21 +5397,21 @@
       <c r="M74" s="2">
         <v>1</v>
       </c>
-      <c r="N74" s="3"/>
       <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="1:16" ht="21" thickBot="1">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>11</v>
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
       </c>
       <c r="E75" s="2">
         <v>15</v>
@@ -5229,12 +5419,9 @@
       <c r="F75" s="2">
         <v>64</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="G75" t="s">
+        <v>210</v>
+      </c>
       <c r="K75" s="2">
         <v>0</v>
       </c>
@@ -5244,21 +5431,21 @@
       <c r="M75" s="2">
         <v>1</v>
       </c>
-      <c r="N75" s="3"/>
       <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:16" ht="21" thickBot="1">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>158</v>
+      <c r="B76" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
       </c>
       <c r="E76" s="2">
         <v>10</v>
@@ -5266,12 +5453,9 @@
       <c r="F76" s="2">
         <v>64</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
+      <c r="G76" t="s">
+        <v>211</v>
+      </c>
       <c r="K76" s="2">
         <v>0</v>
       </c>
@@ -5281,21 +5465,21 @@
       <c r="M76" s="2">
         <v>1</v>
       </c>
-      <c r="N76" s="3"/>
       <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16" ht="21" thickBot="1">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>11</v>
+      <c r="B77" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
       </c>
       <c r="E77" s="2">
         <v>20</v>
@@ -5303,12 +5487,9 @@
       <c r="F77" s="2">
         <v>64</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
+      <c r="G77" t="s">
+        <v>212</v>
+      </c>
       <c r="K77" s="2">
         <v>0</v>
       </c>
@@ -5318,21 +5499,21 @@
       <c r="M77" s="2">
         <v>1</v>
       </c>
-      <c r="N77" s="3"/>
       <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" ht="21" thickBot="1">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>158</v>
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D78" t="s">
+        <v>156</v>
       </c>
       <c r="E78" s="2">
         <v>5</v>
@@ -5340,12 +5521,9 @@
       <c r="F78" s="2">
         <v>64</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
+      <c r="G78" t="s">
+        <v>222</v>
+      </c>
       <c r="K78" s="2">
         <v>0</v>
       </c>
@@ -5355,21 +5533,21 @@
       <c r="M78" s="2">
         <v>1</v>
       </c>
-      <c r="N78" s="3"/>
       <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16" ht="21" thickBot="1">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>11</v>
+      <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
       </c>
       <c r="E79" s="2">
         <v>15</v>
@@ -5377,12 +5555,9 @@
       <c r="F79" s="2">
         <v>64</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="G79" t="s">
+        <v>221</v>
+      </c>
       <c r="K79" s="2">
         <v>0</v>
       </c>
@@ -5392,21 +5567,21 @@
       <c r="M79" s="2">
         <v>1</v>
       </c>
-      <c r="N79" s="3"/>
       <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" ht="21" thickBot="1">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>158</v>
+      <c r="B80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
       </c>
       <c r="E80" s="2">
         <v>7</v>
@@ -5414,12 +5589,9 @@
       <c r="F80" s="2">
         <v>64</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="G80" t="s">
+        <v>223</v>
+      </c>
       <c r="K80" s="2">
         <v>0</v>
       </c>
@@ -5429,21 +5601,21 @@
       <c r="M80" s="2">
         <v>1</v>
       </c>
-      <c r="N80" s="3"/>
       <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="1:16" ht="21" thickBot="1">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
+      <c r="B81" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="2">
         <v>20</v>
@@ -5451,12 +5623,9 @@
       <c r="F81" s="2">
         <v>64</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="G81" t="s">
+        <v>213</v>
+      </c>
       <c r="K81" s="2">
         <v>0</v>
       </c>
@@ -5466,21 +5635,21 @@
       <c r="M81" s="2">
         <v>1</v>
       </c>
-      <c r="N81" s="3"/>
       <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="1:16" ht="21" thickBot="1">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>158</v>
+      <c r="B82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D82" t="s">
+        <v>156</v>
       </c>
       <c r="E82" s="2">
         <v>5</v>
@@ -5488,12 +5657,9 @@
       <c r="F82" s="2">
         <v>64</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="G82" t="s">
+        <v>224</v>
+      </c>
       <c r="K82" s="2">
         <v>0</v>
       </c>
@@ -5503,21 +5669,21 @@
       <c r="M82" s="2">
         <v>1</v>
       </c>
-      <c r="N82" s="3"/>
       <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="1:16" ht="21" thickBot="1">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>11</v>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="2">
         <v>25</v>
@@ -5525,12 +5691,9 @@
       <c r="F83" s="2">
         <v>64</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="G83" t="s">
+        <v>214</v>
+      </c>
       <c r="K83" s="2">
         <v>0</v>
       </c>
@@ -5540,21 +5703,21 @@
       <c r="M83" s="2">
         <v>1</v>
       </c>
-      <c r="N83" s="3"/>
       <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="1:16" ht="21" thickBot="1">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>158</v>
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D84" t="s">
+        <v>156</v>
       </c>
       <c r="E84" s="2">
         <v>5</v>
@@ -5562,12 +5725,9 @@
       <c r="F84" s="2">
         <v>64</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="G84" t="s">
+        <v>225</v>
+      </c>
       <c r="K84" s="2">
         <v>0</v>
       </c>
@@ -5577,21 +5737,21 @@
       <c r="M84" s="2">
         <v>1</v>
       </c>
-      <c r="N84" s="3"/>
       <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="3">
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="1:16" ht="21" thickBot="1">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>11</v>
+      <c r="B85" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
       </c>
       <c r="E85" s="2">
         <v>15</v>
@@ -5599,12 +5759,9 @@
       <c r="F85" s="2">
         <v>64</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="G85" t="s">
+        <v>215</v>
+      </c>
       <c r="K85" s="2">
         <v>0</v>
       </c>
@@ -5614,21 +5771,21 @@
       <c r="M85" s="2">
         <v>1</v>
       </c>
-      <c r="N85" s="3"/>
       <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3">
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="1:16" ht="21" thickBot="1">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>158</v>
+      <c r="B86" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D86" t="s">
+        <v>156</v>
       </c>
       <c r="E86" s="2">
         <v>25</v>
@@ -5636,12 +5793,9 @@
       <c r="F86" s="2">
         <v>64</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="G86" t="s">
+        <v>226</v>
+      </c>
       <c r="K86" s="2">
         <v>0</v>
       </c>
@@ -5651,21 +5805,21 @@
       <c r="M86" s="2">
         <v>1</v>
       </c>
-      <c r="N86" s="3"/>
       <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3">
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="1:16" ht="21" thickBot="1">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>11</v>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
       </c>
       <c r="E87" s="2">
         <v>20</v>
@@ -5673,12 +5827,9 @@
       <c r="F87" s="2">
         <v>64</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="G87" t="s">
+        <v>216</v>
+      </c>
       <c r="K87" s="2">
         <v>0</v>
       </c>
@@ -5688,21 +5839,21 @@
       <c r="M87" s="2">
         <v>1</v>
       </c>
-      <c r="N87" s="3"/>
       <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3">
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="1:16" ht="21" thickBot="1">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>158</v>
+      <c r="B88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D88" t="s">
+        <v>156</v>
       </c>
       <c r="E88" s="2">
         <v>5</v>
@@ -5710,12 +5861,9 @@
       <c r="F88" s="2">
         <v>64</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="G88" t="s">
+        <v>227</v>
+      </c>
       <c r="K88" s="2">
         <v>0</v>
       </c>
@@ -5725,21 +5873,21 @@
       <c r="M88" s="2">
         <v>1</v>
       </c>
-      <c r="N88" s="3"/>
       <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3">
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="1:16" ht="21" thickBot="1">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>11</v>
+      <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
       </c>
       <c r="E89" s="2">
         <v>20</v>
@@ -5747,12 +5895,9 @@
       <c r="F89" s="2">
         <v>64</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="G89" t="s">
+        <v>217</v>
+      </c>
       <c r="K89" s="2">
         <v>0</v>
       </c>
@@ -5762,21 +5907,21 @@
       <c r="M89" s="2">
         <v>1</v>
       </c>
-      <c r="N89" s="3"/>
       <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3">
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="1:16" ht="21" thickBot="1">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>158</v>
+      <c r="B90" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D90" t="s">
+        <v>156</v>
       </c>
       <c r="E90" s="2">
         <v>7</v>
@@ -5784,12 +5929,9 @@
       <c r="F90" s="2">
         <v>64</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="G90" t="s">
+        <v>228</v>
+      </c>
       <c r="K90" s="2">
         <v>0</v>
       </c>
@@ -5799,21 +5941,21 @@
       <c r="M90" s="2">
         <v>1</v>
       </c>
-      <c r="N90" s="3"/>
       <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="3">
+      <c r="P90" s="6"/>
+    </row>
+    <row r="91" spans="1:16" ht="21" thickBot="1">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="2">
         <v>45</v>
@@ -5821,12 +5963,9 @@
       <c r="F91" s="2">
         <v>64</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="G91" t="s">
+        <v>218</v>
+      </c>
       <c r="K91" s="2">
         <v>0</v>
       </c>
@@ -5836,21 +5975,21 @@
       <c r="M91" s="2">
         <v>1</v>
       </c>
-      <c r="N91" s="3"/>
       <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="3">
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="1:16" ht="21" thickBot="1">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>158</v>
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D92" t="s">
+        <v>156</v>
       </c>
       <c r="E92" s="2">
         <v>10</v>
@@ -5858,12 +5997,9 @@
       <c r="F92" s="2">
         <v>64</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="G92" t="s">
+        <v>230</v>
+      </c>
       <c r="K92" s="2">
         <v>0</v>
       </c>
@@ -5873,21 +6009,21 @@
       <c r="M92" s="2">
         <v>1</v>
       </c>
-      <c r="N92" s="3"/>
       <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3">
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="1:16" ht="21" thickBot="1">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>11</v>
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
       </c>
       <c r="E93" s="2">
         <v>10</v>
@@ -5895,12 +6031,9 @@
       <c r="F93" s="2">
         <v>64</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="G93" t="s">
+        <v>219</v>
+      </c>
       <c r="K93" s="2">
         <v>0</v>
       </c>
@@ -5910,21 +6043,21 @@
       <c r="M93" s="2">
         <v>1</v>
       </c>
-      <c r="N93" s="3"/>
       <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="3">
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="1:16" ht="21" thickBot="1">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>158</v>
+      <c r="B94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D94" t="s">
+        <v>156</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
@@ -5932,12 +6065,9 @@
       <c r="F94" s="2">
         <v>64</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="G94" t="s">
+        <v>229</v>
+      </c>
       <c r="K94" s="2">
         <v>0</v>
       </c>
@@ -5947,21 +6077,21 @@
       <c r="M94" s="2">
         <v>1</v>
       </c>
-      <c r="N94" s="3"/>
       <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="3">
+      <c r="P94" s="6"/>
+    </row>
+    <row r="95" spans="1:16" ht="21" thickBot="1">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>11</v>
+      <c r="B95" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
       </c>
       <c r="E95" s="2">
         <v>20</v>
@@ -5969,12 +6099,9 @@
       <c r="F95" s="2">
         <v>64</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="G95" t="s">
+        <v>220</v>
+      </c>
       <c r="K95" s="2">
         <v>0</v>
       </c>
@@ -5984,21 +6111,21 @@
       <c r="M95" s="2">
         <v>1</v>
       </c>
-      <c r="N95" s="3"/>
       <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="3">
+      <c r="P95" s="6"/>
+    </row>
+    <row r="96" spans="1:16" ht="21" thickBot="1">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>158</v>
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D96" t="s">
+        <v>156</v>
       </c>
       <c r="E96" s="2">
         <v>5</v>
@@ -6006,12 +6133,9 @@
       <c r="F96" s="2">
         <v>64</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="G96" t="s">
+        <v>231</v>
+      </c>
       <c r="K96" s="2">
         <v>0</v>
       </c>
@@ -6021,21 +6145,21 @@
       <c r="M96" s="2">
         <v>1</v>
       </c>
-      <c r="N96" s="3"/>
       <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="3">
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="1:16" ht="21" thickBot="1">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>11</v>
+      <c r="B97" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
       </c>
       <c r="E97" s="2">
         <v>40</v>
@@ -6043,12 +6167,9 @@
       <c r="F97" s="2">
         <v>64</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="G97" t="s">
+        <v>262</v>
+      </c>
       <c r="K97" s="2">
         <v>0</v>
       </c>
@@ -6058,21 +6179,21 @@
       <c r="M97" s="2">
         <v>1</v>
       </c>
-      <c r="N97" s="3"/>
       <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="3">
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="1:16" ht="21" thickBot="1">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>158</v>
+      <c r="B98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D98" t="s">
+        <v>156</v>
       </c>
       <c r="E98" s="2">
         <v>10</v>
@@ -6080,12 +6201,9 @@
       <c r="F98" s="2">
         <v>64</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="G98" t="s">
+        <v>277</v>
+      </c>
       <c r="K98" s="2">
         <v>0</v>
       </c>
@@ -6095,21 +6213,21 @@
       <c r="M98" s="2">
         <v>1</v>
       </c>
-      <c r="N98" s="3"/>
       <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="3">
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="1:16" ht="21" thickBot="1">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>11</v>
+      <c r="B99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
       </c>
       <c r="E99" s="2">
         <v>20</v>
@@ -6117,12 +6235,9 @@
       <c r="F99" s="2">
         <v>64</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="G99" t="s">
+        <v>263</v>
+      </c>
       <c r="K99" s="2">
         <v>0</v>
       </c>
@@ -6132,21 +6247,21 @@
       <c r="M99" s="2">
         <v>1</v>
       </c>
-      <c r="N99" s="3"/>
       <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="3">
+      <c r="P99" s="6"/>
+    </row>
+    <row r="100" spans="1:16" ht="21" thickBot="1">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>158</v>
+      <c r="B100" t="s">
+        <v>235</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D100" t="s">
+        <v>156</v>
       </c>
       <c r="E100" s="2">
         <v>5</v>
@@ -6154,12 +6269,9 @@
       <c r="F100" s="2">
         <v>64</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="G100" t="s">
+        <v>278</v>
+      </c>
       <c r="K100" s="2">
         <v>0</v>
       </c>
@@ -6169,21 +6281,21 @@
       <c r="M100" s="2">
         <v>1</v>
       </c>
-      <c r="N100" s="3"/>
       <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="3">
+      <c r="P100" s="6"/>
+    </row>
+    <row r="101" spans="1:16" ht="21" thickBot="1">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>11</v>
+      <c r="B101" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
       </c>
       <c r="E101" s="2">
         <v>40</v>
@@ -6191,12 +6303,9 @@
       <c r="F101" s="2">
         <v>64</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="G101" t="s">
+        <v>264</v>
+      </c>
       <c r="K101" s="2">
         <v>0</v>
       </c>
@@ -6206,21 +6315,21 @@
       <c r="M101" s="2">
         <v>1</v>
       </c>
-      <c r="N101" s="3"/>
       <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="3">
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="1:16" ht="21" thickBot="1">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>158</v>
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D102" t="s">
+        <v>156</v>
       </c>
       <c r="E102" s="2">
         <v>10</v>
@@ -6228,12 +6337,9 @@
       <c r="F102" s="2">
         <v>64</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
+      <c r="G102" t="s">
+        <v>279</v>
+      </c>
       <c r="K102" s="2">
         <v>0</v>
       </c>
@@ -6243,21 +6349,21 @@
       <c r="M102" s="2">
         <v>1</v>
       </c>
-      <c r="N102" s="3"/>
       <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="3">
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="1:16" ht="21" thickBot="1">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>11</v>
+      <c r="B103" t="s">
+        <v>238</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
       </c>
       <c r="E103" s="2">
         <v>60</v>
@@ -6265,12 +6371,9 @@
       <c r="F103" s="2">
         <v>64</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
+      <c r="G103" t="s">
+        <v>265</v>
+      </c>
       <c r="K103" s="2">
         <v>0</v>
       </c>
@@ -6280,21 +6383,21 @@
       <c r="M103" s="2">
         <v>1</v>
       </c>
-      <c r="N103" s="3"/>
       <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="3">
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="1:16" ht="21" thickBot="1">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>158</v>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D104" t="s">
+        <v>156</v>
       </c>
       <c r="E104" s="2">
         <v>15</v>
@@ -6302,12 +6405,9 @@
       <c r="F104" s="2">
         <v>64</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
+      <c r="G104" t="s">
+        <v>280</v>
+      </c>
       <c r="K104" s="2">
         <v>0</v>
       </c>
@@ -6317,21 +6417,21 @@
       <c r="M104" s="2">
         <v>1</v>
       </c>
-      <c r="N104" s="3"/>
       <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="3">
+      <c r="P104" s="6"/>
+    </row>
+    <row r="105" spans="1:16" ht="21" thickBot="1">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>11</v>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
       </c>
       <c r="E105" s="2">
         <v>30</v>
@@ -6339,12 +6439,9 @@
       <c r="F105" s="2">
         <v>64</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
+      <c r="G105" t="s">
+        <v>266</v>
+      </c>
       <c r="K105" s="2">
         <v>0</v>
       </c>
@@ -6354,21 +6451,21 @@
       <c r="M105" s="2">
         <v>1</v>
       </c>
-      <c r="N105" s="3"/>
       <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="3">
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="1:16" ht="21" thickBot="1">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>158</v>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106" t="s">
+        <v>156</v>
       </c>
       <c r="E106" s="2">
         <v>7</v>
@@ -6376,12 +6473,9 @@
       <c r="F106" s="2">
         <v>64</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="G106" t="s">
+        <v>281</v>
+      </c>
       <c r="K106" s="2">
         <v>0</v>
       </c>
@@ -6391,21 +6485,21 @@
       <c r="M106" s="2">
         <v>1</v>
       </c>
-      <c r="N106" s="3"/>
       <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="3">
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="1:16" ht="21" thickBot="1">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>11</v>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
       </c>
       <c r="E107" s="2">
         <v>30</v>
@@ -6413,12 +6507,9 @@
       <c r="F107" s="2">
         <v>64</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="G107" t="s">
+        <v>267</v>
+      </c>
       <c r="K107" s="2">
         <v>0</v>
       </c>
@@ -6428,21 +6519,21 @@
       <c r="M107" s="2">
         <v>1</v>
       </c>
-      <c r="N107" s="3"/>
       <c r="O107" s="1"/>
-    </row>
-    <row r="108" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="3">
+      <c r="P107" s="6"/>
+    </row>
+    <row r="108" spans="1:16" ht="21" thickBot="1">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>158</v>
+      <c r="B108" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D108" t="s">
+        <v>156</v>
       </c>
       <c r="E108" s="2">
         <v>7</v>
@@ -6450,12 +6541,9 @@
       <c r="F108" s="2">
         <v>64</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+      <c r="G108" t="s">
+        <v>282</v>
+      </c>
       <c r="K108" s="2">
         <v>0</v>
       </c>
@@ -6465,21 +6553,21 @@
       <c r="M108" s="2">
         <v>1</v>
       </c>
-      <c r="N108" s="3"/>
       <c r="O108" s="1"/>
-    </row>
-    <row r="109" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="3">
+      <c r="P108" s="6"/>
+    </row>
+    <row r="109" spans="1:16" ht="21" thickBot="1">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>11</v>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
       </c>
       <c r="E109" s="2">
         <v>30</v>
@@ -6487,12 +6575,9 @@
       <c r="F109" s="2">
         <v>64</v>
       </c>
-      <c r="G109" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
+      <c r="G109" t="s">
+        <v>268</v>
+      </c>
       <c r="K109" s="2">
         <v>0</v>
       </c>
@@ -6502,21 +6587,21 @@
       <c r="M109" s="2">
         <v>1</v>
       </c>
-      <c r="N109" s="3"/>
       <c r="O109" s="1"/>
-    </row>
-    <row r="110" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="3">
+      <c r="P109" s="6"/>
+    </row>
+    <row r="110" spans="1:16" ht="21" thickBot="1">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>158</v>
+      <c r="B110" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D110" t="s">
+        <v>156</v>
       </c>
       <c r="E110" s="2">
         <v>7</v>
@@ -6524,12 +6609,9 @@
       <c r="F110" s="2">
         <v>64</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
+      <c r="G110" t="s">
+        <v>283</v>
+      </c>
       <c r="K110" s="2">
         <v>0</v>
       </c>
@@ -6539,21 +6621,21 @@
       <c r="M110" s="2">
         <v>1</v>
       </c>
-      <c r="N110" s="3"/>
       <c r="O110" s="1"/>
-    </row>
-    <row r="111" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="3">
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="1:16" ht="21" thickBot="1">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>11</v>
+      <c r="B111" t="s">
+        <v>246</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D111" t="s">
+        <v>10</v>
       </c>
       <c r="E111" s="2">
         <v>100</v>
@@ -6561,12 +6643,9 @@
       <c r="F111" s="2">
         <v>64</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="G111" t="s">
+        <v>269</v>
+      </c>
       <c r="K111" s="2">
         <v>0</v>
       </c>
@@ -6576,21 +6655,21 @@
       <c r="M111" s="2">
         <v>1</v>
       </c>
-      <c r="N111" s="3"/>
       <c r="O111" s="1"/>
-    </row>
-    <row r="112" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="3">
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" spans="1:16" ht="21" thickBot="1">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>158</v>
+      <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D112" t="s">
+        <v>156</v>
       </c>
       <c r="E112" s="2">
         <v>20</v>
@@ -6598,12 +6677,9 @@
       <c r="F112" s="2">
         <v>64</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
+      <c r="G112" t="s">
+        <v>284</v>
+      </c>
       <c r="K112" s="2">
         <v>0</v>
       </c>
@@ -6613,21 +6689,21 @@
       <c r="M112" s="2">
         <v>1</v>
       </c>
-      <c r="N112" s="3"/>
       <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="3">
+      <c r="P112" s="6"/>
+    </row>
+    <row r="113" spans="1:16" ht="21" thickBot="1">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>11</v>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D113" t="s">
+        <v>10</v>
       </c>
       <c r="E113" s="2">
         <v>100</v>
@@ -6635,12 +6711,9 @@
       <c r="F113" s="2">
         <v>64</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
+      <c r="G113" t="s">
+        <v>270</v>
+      </c>
       <c r="K113" s="2">
         <v>0</v>
       </c>
@@ -6650,21 +6723,21 @@
       <c r="M113" s="2">
         <v>1</v>
       </c>
-      <c r="N113" s="3"/>
       <c r="O113" s="1"/>
-    </row>
-    <row r="114" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="3">
+      <c r="P113" s="6"/>
+    </row>
+    <row r="114" spans="1:16" ht="21" thickBot="1">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>158</v>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D114" t="s">
+        <v>156</v>
       </c>
       <c r="E114" s="2">
         <v>20</v>
@@ -6672,12 +6745,9 @@
       <c r="F114" s="2">
         <v>64</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="G114" t="s">
+        <v>285</v>
+      </c>
       <c r="K114" s="2">
         <v>0</v>
       </c>
@@ -6687,21 +6757,21 @@
       <c r="M114" s="2">
         <v>1</v>
       </c>
-      <c r="N114" s="3"/>
       <c r="O114" s="1"/>
-    </row>
-    <row r="115" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="3">
+      <c r="P114" s="6"/>
+    </row>
+    <row r="115" spans="1:16" ht="21" thickBot="1">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>11</v>
+      <c r="B115" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
       </c>
       <c r="E115" s="2">
         <v>25</v>
@@ -6709,12 +6779,9 @@
       <c r="F115" s="2">
         <v>64</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="G115" t="s">
+        <v>271</v>
+      </c>
       <c r="K115" s="2">
         <v>0</v>
       </c>
@@ -6724,21 +6791,21 @@
       <c r="M115" s="2">
         <v>1</v>
       </c>
-      <c r="N115" s="3"/>
       <c r="O115" s="1"/>
-    </row>
-    <row r="116" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="3">
+      <c r="P115" s="6"/>
+    </row>
+    <row r="116" spans="1:16" ht="21" thickBot="1">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>158</v>
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D116" t="s">
+        <v>156</v>
       </c>
       <c r="E116" s="2">
         <v>5</v>
@@ -6746,12 +6813,9 @@
       <c r="F116" s="2">
         <v>64</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
+      <c r="G116" t="s">
+        <v>286</v>
+      </c>
       <c r="K116" s="2">
         <v>0</v>
       </c>
@@ -6761,21 +6825,21 @@
       <c r="M116" s="2">
         <v>1</v>
       </c>
-      <c r="N116" s="3"/>
       <c r="O116" s="1"/>
-    </row>
-    <row r="117" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="3">
+      <c r="P116" s="6"/>
+    </row>
+    <row r="117" spans="1:16" ht="21" thickBot="1">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>11</v>
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
       </c>
       <c r="E117" s="2">
         <v>30</v>
@@ -6783,12 +6847,9 @@
       <c r="F117" s="2">
         <v>64</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
+      <c r="G117" t="s">
+        <v>272</v>
+      </c>
       <c r="K117" s="2">
         <v>0</v>
       </c>
@@ -6798,21 +6859,21 @@
       <c r="M117" s="2">
         <v>1</v>
       </c>
-      <c r="N117" s="3"/>
       <c r="O117" s="1"/>
-    </row>
-    <row r="118" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="3">
+      <c r="P117" s="6"/>
+    </row>
+    <row r="118" spans="1:16" ht="21" thickBot="1">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>158</v>
+      <c r="B118" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D118" t="s">
+        <v>156</v>
       </c>
       <c r="E118" s="2">
         <v>7</v>
@@ -6820,12 +6881,9 @@
       <c r="F118" s="2">
         <v>64</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+      <c r="G118" t="s">
+        <v>287</v>
+      </c>
       <c r="K118" s="2">
         <v>0</v>
       </c>
@@ -6835,21 +6893,21 @@
       <c r="M118" s="2">
         <v>1</v>
       </c>
-      <c r="N118" s="3"/>
       <c r="O118" s="1"/>
-    </row>
-    <row r="119" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="3">
+      <c r="P118" s="6"/>
+    </row>
+    <row r="119" spans="1:16" ht="21" thickBot="1">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>11</v>
+      <c r="B119" t="s">
+        <v>254</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
       </c>
       <c r="E119" s="2">
         <v>120</v>
@@ -6857,12 +6915,9 @@
       <c r="F119" s="2">
         <v>64</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+      <c r="G119" t="s">
+        <v>273</v>
+      </c>
       <c r="K119" s="2">
         <v>0</v>
       </c>
@@ -6872,21 +6927,21 @@
       <c r="M119" s="2">
         <v>1</v>
       </c>
-      <c r="N119" s="3"/>
       <c r="O119" s="1"/>
-    </row>
-    <row r="120" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="3">
+      <c r="P119" s="6"/>
+    </row>
+    <row r="120" spans="1:16" ht="21" thickBot="1">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>158</v>
+      <c r="B120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D120" t="s">
+        <v>156</v>
       </c>
       <c r="E120" s="2">
         <v>25</v>
@@ -6894,12 +6949,9 @@
       <c r="F120" s="2">
         <v>64</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+      <c r="G120" t="s">
+        <v>288</v>
+      </c>
       <c r="K120" s="2">
         <v>0</v>
       </c>
@@ -6909,21 +6961,21 @@
       <c r="M120" s="2">
         <v>1</v>
       </c>
-      <c r="N120" s="3"/>
       <c r="O120" s="1"/>
-    </row>
-    <row r="121" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="3">
+      <c r="P120" s="6"/>
+    </row>
+    <row r="121" spans="1:16" ht="21" thickBot="1">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>11</v>
+      <c r="B121" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
       </c>
       <c r="E121" s="2">
         <v>15</v>
@@ -6931,12 +6983,9 @@
       <c r="F121" s="2">
         <v>64</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
+      <c r="G121" t="s">
+        <v>274</v>
+      </c>
       <c r="K121" s="2">
         <v>0</v>
       </c>
@@ -6946,21 +6995,21 @@
       <c r="M121" s="2">
         <v>1</v>
       </c>
-      <c r="N121" s="3"/>
       <c r="O121" s="1"/>
-    </row>
-    <row r="122" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="3">
+      <c r="P121" s="6"/>
+    </row>
+    <row r="122" spans="1:16" ht="21" thickBot="1">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>158</v>
+      <c r="B122" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D122" t="s">
+        <v>156</v>
       </c>
       <c r="E122" s="2">
         <v>20</v>
@@ -6968,12 +7017,9 @@
       <c r="F122" s="2">
         <v>64</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
+      <c r="G122" t="s">
+        <v>289</v>
+      </c>
       <c r="K122" s="2">
         <v>0</v>
       </c>
@@ -6983,21 +7029,21 @@
       <c r="M122" s="2">
         <v>1</v>
       </c>
-      <c r="N122" s="3"/>
       <c r="O122" s="1"/>
-    </row>
-    <row r="123" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3">
+      <c r="P122" s="6"/>
+    </row>
+    <row r="123" spans="1:16" ht="21" thickBot="1">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>11</v>
+      <c r="B123" t="s">
+        <v>258</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
       </c>
       <c r="E123" s="2">
         <v>50</v>
@@ -7005,12 +7051,9 @@
       <c r="F123" s="2">
         <v>64</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-      <c r="J123" s="3"/>
+      <c r="G123" t="s">
+        <v>275</v>
+      </c>
       <c r="K123" s="2">
         <v>0</v>
       </c>
@@ -7020,21 +7063,21 @@
       <c r="M123" s="2">
         <v>1</v>
       </c>
-      <c r="N123" s="3"/>
       <c r="O123" s="1"/>
-    </row>
-    <row r="124" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="3">
+      <c r="P123" s="6"/>
+    </row>
+    <row r="124" spans="1:16" ht="21" thickBot="1">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>158</v>
+      <c r="B124" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D124" t="s">
+        <v>156</v>
       </c>
       <c r="E124" s="2">
         <v>12</v>
@@ -7042,12 +7085,9 @@
       <c r="F124" s="2">
         <v>64</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="G124" t="s">
+        <v>290</v>
+      </c>
       <c r="K124" s="2">
         <v>0</v>
       </c>
@@ -7057,21 +7097,21 @@
       <c r="M124" s="2">
         <v>1</v>
       </c>
-      <c r="N124" s="3"/>
       <c r="O124" s="1"/>
-    </row>
-    <row r="125" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="3">
+      <c r="P124" s="6"/>
+    </row>
+    <row r="125" spans="1:16" ht="21" thickBot="1">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>11</v>
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
       </c>
       <c r="E125" s="2">
         <v>10</v>
@@ -7079,12 +7119,9 @@
       <c r="F125" s="2">
         <v>64</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="G125" t="s">
+        <v>276</v>
+      </c>
       <c r="K125" s="2">
         <v>0</v>
       </c>
@@ -7094,21 +7131,21 @@
       <c r="M125" s="2">
         <v>1</v>
       </c>
-      <c r="N125" s="3"/>
       <c r="O125" s="1"/>
-    </row>
-    <row r="126" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="3">
+      <c r="P125" s="6"/>
+    </row>
+    <row r="126" spans="1:16" ht="21" thickBot="1">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>158</v>
+      <c r="B126" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D126" t="s">
+        <v>156</v>
       </c>
       <c r="E126" s="2">
         <v>5</v>
@@ -7116,12 +7153,9 @@
       <c r="F126" s="2">
         <v>64</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
+      <c r="G126" t="s">
+        <v>291</v>
+      </c>
       <c r="K126" s="2">
         <v>0</v>
       </c>
@@ -7131,21 +7165,21 @@
       <c r="M126" s="2">
         <v>1</v>
       </c>
-      <c r="N126" s="3"/>
       <c r="O126" s="1"/>
-    </row>
-    <row r="127" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="3">
+      <c r="P126" s="6"/>
+    </row>
+    <row r="127" spans="1:16" ht="21" thickBot="1">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>11</v>
+      <c r="B127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
       </c>
       <c r="E127" s="2">
         <v>20</v>
@@ -7153,12 +7187,9 @@
       <c r="F127" s="2">
         <v>64</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
+      <c r="G127" t="s">
+        <v>297</v>
+      </c>
       <c r="K127" s="2">
         <v>0</v>
       </c>
@@ -7168,21 +7199,20 @@
       <c r="M127" s="2">
         <v>1</v>
       </c>
-      <c r="N127" s="3"/>
       <c r="O127" s="1"/>
     </row>
-    <row r="128" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="3">
+    <row r="128" spans="1:16" ht="21" thickBot="1">
+      <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>198</v>
+      <c r="B128" t="s">
+        <v>293</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D128" t="s">
+        <v>187</v>
       </c>
       <c r="E128" s="2">
         <v>8</v>
@@ -7190,12 +7220,9 @@
       <c r="F128" s="2">
         <v>64</v>
       </c>
-      <c r="G128" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="G128" t="s">
+        <v>296</v>
+      </c>
       <c r="K128" s="2">
         <v>0</v>
       </c>
@@ -7205,21 +7232,20 @@
       <c r="M128" s="2">
         <v>1</v>
       </c>
-      <c r="N128" s="3"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="3">
+    <row r="129" spans="1:15" ht="21" thickBot="1">
+      <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>11</v>
+      <c r="B129" t="s">
+        <v>312</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
       </c>
       <c r="E129" s="2">
         <v>25</v>
@@ -7227,12 +7253,9 @@
       <c r="F129" s="2">
         <v>64</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
+      <c r="G129" t="s">
+        <v>314</v>
+      </c>
       <c r="K129" s="2">
         <v>0</v>
       </c>
@@ -7242,21 +7265,20 @@
       <c r="M129" s="2">
         <v>1</v>
       </c>
-      <c r="N129" s="3"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="3">
+    <row r="130" spans="1:15" ht="21" thickBot="1">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>198</v>
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D130" t="s">
+        <v>187</v>
       </c>
       <c r="E130" s="2">
         <v>10</v>
@@ -7264,12 +7286,9 @@
       <c r="F130" s="2">
         <v>64</v>
       </c>
-      <c r="G130" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="G130" t="s">
+        <v>315</v>
+      </c>
       <c r="K130" s="2">
         <v>0</v>
       </c>
@@ -7279,21 +7298,20 @@
       <c r="M130" s="2">
         <v>1</v>
       </c>
-      <c r="N130" s="3"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="3">
+    <row r="131" spans="1:15" ht="21" thickBot="1">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>11</v>
+      <c r="B131" t="s">
+        <v>300</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
       </c>
       <c r="E131" s="2">
         <v>30</v>
@@ -7301,12 +7319,9 @@
       <c r="F131" s="2">
         <v>64</v>
       </c>
-      <c r="G131" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="G131" t="s">
+        <v>307</v>
+      </c>
       <c r="K131" s="2">
         <v>0</v>
       </c>
@@ -7316,21 +7331,20 @@
       <c r="M131" s="2">
         <v>1</v>
       </c>
-      <c r="N131" s="3"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="3">
+    <row r="132" spans="1:15" ht="21" thickBot="1">
+      <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>198</v>
+      <c r="B132" t="s">
+        <v>301</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D132" t="s">
+        <v>187</v>
       </c>
       <c r="E132" s="2">
         <v>12</v>
@@ -7338,12 +7352,9 @@
       <c r="F132" s="2">
         <v>64</v>
       </c>
-      <c r="G132" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="G132" t="s">
+        <v>306</v>
+      </c>
       <c r="K132" s="2">
         <v>0</v>
       </c>
@@ -7353,21 +7364,20 @@
       <c r="M132" s="2">
         <v>1</v>
       </c>
-      <c r="N132" s="3"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="3">
+    <row r="133" spans="1:15" ht="21" thickBot="1">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>11</v>
+      <c r="B133" t="s">
+        <v>302</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
       </c>
       <c r="E133" s="2">
         <v>35</v>
@@ -7375,12 +7385,9 @@
       <c r="F133" s="2">
         <v>64</v>
       </c>
-      <c r="G133" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
+      <c r="G133" t="s">
+        <v>309</v>
+      </c>
       <c r="K133" s="2">
         <v>0</v>
       </c>
@@ -7390,21 +7397,20 @@
       <c r="M133" s="2">
         <v>1</v>
       </c>
-      <c r="N133" s="3"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="3">
+    <row r="134" spans="1:15" ht="21" thickBot="1">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>198</v>
+      <c r="B134" t="s">
+        <v>303</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D134" t="s">
+        <v>187</v>
       </c>
       <c r="E134" s="2">
         <v>15</v>
@@ -7412,12 +7418,9 @@
       <c r="F134" s="2">
         <v>64</v>
       </c>
-      <c r="G134" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
+      <c r="G134" t="s">
+        <v>308</v>
+      </c>
       <c r="K134" s="2">
         <v>0</v>
       </c>
@@ -7427,21 +7430,20 @@
       <c r="M134" s="2">
         <v>1</v>
       </c>
-      <c r="N134" s="3"/>
       <c r="O134" s="1"/>
     </row>
-    <row r="135" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="3">
+    <row r="135" spans="1:15" ht="21" thickBot="1">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>11</v>
+      <c r="B135" t="s">
+        <v>304</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
       </c>
       <c r="E135" s="2">
         <v>20</v>
@@ -7449,12 +7451,9 @@
       <c r="F135" s="2">
         <v>64</v>
       </c>
-      <c r="G135" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
+      <c r="G135" t="s">
+        <v>311</v>
+      </c>
       <c r="K135" s="2">
         <v>0</v>
       </c>
@@ -7464,21 +7463,20 @@
       <c r="M135" s="2">
         <v>1</v>
       </c>
-      <c r="N135" s="3"/>
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="3">
+    <row r="136" spans="1:15" ht="21" thickBot="1">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>198</v>
+      <c r="B136" t="s">
+        <v>305</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D136" t="s">
+        <v>187</v>
       </c>
       <c r="E136" s="2">
         <v>8</v>
@@ -7486,12 +7484,9 @@
       <c r="F136" s="2">
         <v>64</v>
       </c>
-      <c r="G136" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
+      <c r="G136" t="s">
+        <v>310</v>
+      </c>
       <c r="K136" s="2">
         <v>0</v>
       </c>
@@ -7501,21 +7496,20 @@
       <c r="M136" s="2">
         <v>1</v>
       </c>
-      <c r="N136" s="3"/>
       <c r="O136" s="1"/>
     </row>
-    <row r="137" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="3">
+    <row r="137" spans="1:15" ht="21" thickBot="1">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>11</v>
+      <c r="B137" t="s">
+        <v>294</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
       </c>
       <c r="E137" s="2">
         <v>25</v>
@@ -7523,12 +7517,9 @@
       <c r="F137" s="2">
         <v>64</v>
       </c>
-      <c r="G137" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
+      <c r="G137" t="s">
+        <v>299</v>
+      </c>
       <c r="K137" s="2">
         <v>0</v>
       </c>
@@ -7538,21 +7529,20 @@
       <c r="M137" s="2">
         <v>1</v>
       </c>
-      <c r="N137" s="3"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="3">
+    <row r="138" spans="1:15" ht="21" thickBot="1">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>198</v>
+      <c r="B138" t="s">
+        <v>295</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D138" t="s">
+        <v>187</v>
       </c>
       <c r="E138" s="2">
         <v>10</v>
@@ -7560,12 +7550,9 @@
       <c r="F138" s="2">
         <v>64</v>
       </c>
-      <c r="G138" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
+      <c r="G138" t="s">
+        <v>298</v>
+      </c>
       <c r="K138" s="2">
         <v>0</v>
       </c>
@@ -7575,21 +7562,20 @@
       <c r="M138" s="2">
         <v>1</v>
       </c>
-      <c r="N138" s="3"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="3">
+    <row r="139" spans="1:15" ht="21" thickBot="1">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>11</v>
+      <c r="B139" t="s">
+        <v>316</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
       </c>
       <c r="E139" s="2">
         <v>15</v>
@@ -7597,12 +7583,9 @@
       <c r="F139" s="2">
         <v>64</v>
       </c>
-      <c r="G139" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="G139" t="s">
+        <v>332</v>
+      </c>
       <c r="K139" s="2">
         <v>0</v>
       </c>
@@ -7612,21 +7595,20 @@
       <c r="M139" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N139" s="3"/>
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="3">
+    <row r="140" spans="1:15" ht="21" thickBot="1">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>11</v>
+      <c r="B140" t="s">
+        <v>317</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
       </c>
       <c r="E140" s="2">
         <v>30</v>
@@ -7634,12 +7616,9 @@
       <c r="F140" s="2">
         <v>64</v>
       </c>
-      <c r="G140" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="G140" t="s">
+        <v>333</v>
+      </c>
       <c r="K140" s="2">
         <v>0</v>
       </c>
@@ -7649,21 +7628,20 @@
       <c r="M140" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N140" s="3"/>
       <c r="O140" s="1"/>
     </row>
-    <row r="141" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="3">
+    <row r="141" spans="1:15" ht="21" thickBot="1">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>11</v>
+      <c r="B141" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
       </c>
       <c r="E141" s="2">
         <v>120</v>
@@ -7671,12 +7649,9 @@
       <c r="F141" s="2">
         <v>64</v>
       </c>
-      <c r="G141" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="3"/>
+      <c r="G141" t="s">
+        <v>334</v>
+      </c>
       <c r="K141" s="2">
         <v>0</v>
       </c>
@@ -7686,21 +7661,20 @@
       <c r="M141" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N141" s="3"/>
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="3">
+    <row r="142" spans="1:15" ht="21" thickBot="1">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>22</v>
+      <c r="B142" t="s">
+        <v>319</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
       </c>
       <c r="E142" s="2">
         <v>50</v>
@@ -7708,12 +7682,9 @@
       <c r="F142" s="2">
         <v>1</v>
       </c>
-      <c r="G142" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
+      <c r="G142" t="s">
+        <v>335</v>
+      </c>
       <c r="K142" s="2">
         <v>12</v>
       </c>
@@ -7723,21 +7694,20 @@
       <c r="M142" s="2">
         <v>1.38</v>
       </c>
-      <c r="N142" s="3"/>
       <c r="O142" s="1"/>
     </row>
-    <row r="143" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="3">
+    <row r="143" spans="1:15" ht="21" thickBot="1">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>24</v>
+      <c r="B143" t="s">
+        <v>320</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="D143" t="s">
+        <v>22</v>
       </c>
       <c r="E143" s="2">
         <v>50</v>
@@ -7745,12 +7715,9 @@
       <c r="F143" s="2">
         <v>1</v>
       </c>
-      <c r="G143" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H143" s="3"/>
-      <c r="I143" s="3"/>
-      <c r="J143" s="3"/>
+      <c r="G143" t="s">
+        <v>336</v>
+      </c>
       <c r="K143" s="2">
         <v>12</v>
       </c>
@@ -7760,21 +7727,20 @@
       <c r="M143" s="2">
         <v>0.92</v>
       </c>
-      <c r="N143" s="3"/>
       <c r="O143" s="1"/>
     </row>
-    <row r="144" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="3">
+    <row r="144" spans="1:15" ht="21" thickBot="1">
+      <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>26</v>
+      <c r="B144" t="s">
+        <v>321</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
       </c>
       <c r="E144" s="2">
         <v>50</v>
@@ -7782,12 +7748,9 @@
       <c r="F144" s="2">
         <v>1</v>
       </c>
-      <c r="G144" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
+      <c r="G144" t="s">
+        <v>337</v>
+      </c>
       <c r="K144" s="2">
         <v>12</v>
       </c>
@@ -7797,21 +7760,20 @@
       <c r="M144" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N144" s="3"/>
       <c r="O144" s="1"/>
     </row>
-    <row r="145" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="3">
+    <row r="145" spans="1:15" ht="21" thickBot="1">
+      <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>29</v>
+      <c r="B145" t="s">
+        <v>322</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
       </c>
       <c r="E145" s="2">
         <v>60</v>
@@ -7819,12 +7781,9 @@
       <c r="F145" s="2">
         <v>1</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="J145" s="3"/>
+      <c r="G145" t="s">
+        <v>338</v>
+      </c>
       <c r="K145" s="2">
         <v>0</v>
       </c>
@@ -7834,21 +7793,20 @@
       <c r="M145" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N145" s="3"/>
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="3">
+    <row r="146" spans="1:15" ht="21" thickBot="1">
+      <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>32</v>
+      <c r="B146" t="s">
+        <v>323</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D146" t="s">
+        <v>30</v>
       </c>
       <c r="E146" s="2">
         <v>70</v>
@@ -7856,12 +7814,9 @@
       <c r="F146" s="2">
         <v>1</v>
       </c>
-      <c r="G146" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="G146" t="s">
+        <v>339</v>
+      </c>
       <c r="K146" s="2">
         <v>0</v>
       </c>
@@ -7871,21 +7826,20 @@
       <c r="M146" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N146" s="3"/>
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="3">
+    <row r="147" spans="1:15" ht="21" thickBot="1">
+      <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>47</v>
+      <c r="B147" t="s">
+        <v>324</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D147" t="s">
+        <v>45</v>
       </c>
       <c r="E147" s="2">
         <v>50</v>
@@ -7893,12 +7847,9 @@
       <c r="F147" s="2">
         <v>1</v>
       </c>
-      <c r="G147" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H147" s="3"/>
-      <c r="I147" s="3"/>
-      <c r="J147" s="3"/>
+      <c r="G147" t="s">
+        <v>340</v>
+      </c>
       <c r="K147" s="2">
         <v>0</v>
       </c>
@@ -7908,21 +7859,20 @@
       <c r="M147" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N147" s="3"/>
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="3">
+    <row r="148" spans="1:15" ht="21" thickBot="1">
+      <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>34</v>
+      <c r="B148" t="s">
+        <v>325</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D148" t="s">
+        <v>32</v>
       </c>
       <c r="E148" s="2">
         <v>3</v>
@@ -7930,12 +7880,9 @@
       <c r="F148" s="2">
         <v>32</v>
       </c>
-      <c r="G148" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="G148" t="s">
+        <v>341</v>
+      </c>
       <c r="K148" s="2">
         <v>12</v>
       </c>
@@ -7945,21 +7892,20 @@
       <c r="M148" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N148" s="3"/>
       <c r="O148" s="1"/>
     </row>
-    <row r="149" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="3">
+    <row r="149" spans="1:15" ht="21" thickBot="1">
+      <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>44</v>
+      <c r="B149" t="s">
+        <v>326</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D149" t="s">
+        <v>42</v>
       </c>
       <c r="E149" s="2">
         <v>50</v>
@@ -7967,12 +7913,9 @@
       <c r="F149" s="2">
         <v>1</v>
       </c>
-      <c r="G149" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
+      <c r="G149" t="s">
+        <v>342</v>
+      </c>
       <c r="K149" s="2">
         <v>0</v>
       </c>
@@ -7982,21 +7925,20 @@
       <c r="M149" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N149" s="3"/>
       <c r="O149" s="1"/>
     </row>
-    <row r="150" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="3">
+    <row r="150" spans="1:15" ht="21" thickBot="1">
+      <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>96</v>
+      <c r="B150" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D150" t="s">
+        <v>94</v>
       </c>
       <c r="E150" s="2">
         <v>70</v>
@@ -8004,12 +7946,9 @@
       <c r="F150" s="2">
         <v>1</v>
       </c>
-      <c r="G150" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-      <c r="J150" s="3"/>
+      <c r="G150" t="s">
+        <v>343</v>
+      </c>
       <c r="K150" s="2">
         <v>0</v>
       </c>
@@ -8019,21 +7958,20 @@
       <c r="M150" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N150" s="3"/>
       <c r="O150" s="1"/>
     </row>
-    <row r="151" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="3">
+    <row r="151" spans="1:15" ht="21" thickBot="1">
+      <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>50</v>
+      <c r="B151" t="s">
+        <v>328</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D151" t="s">
+        <v>48</v>
       </c>
       <c r="E151" s="2">
         <v>150</v>
@@ -8041,12 +7979,9 @@
       <c r="F151" s="2">
         <v>1</v>
       </c>
-      <c r="G151" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
+      <c r="G151" t="s">
+        <v>344</v>
+      </c>
       <c r="K151" s="2">
         <v>0</v>
       </c>
@@ -8056,21 +7991,20 @@
       <c r="M151" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N151" s="3"/>
       <c r="O151" s="1"/>
     </row>
-    <row r="152" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="3">
+    <row r="152" spans="1:15" ht="21" thickBot="1">
+      <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>53</v>
+      <c r="B152" t="s">
+        <v>329</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D152" t="s">
+        <v>51</v>
       </c>
       <c r="E152" s="2">
         <v>100</v>
@@ -8078,12 +8012,9 @@
       <c r="F152" s="2">
         <v>1</v>
       </c>
-      <c r="G152" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-      <c r="J152" s="3"/>
+      <c r="G152" t="s">
+        <v>345</v>
+      </c>
       <c r="K152" s="2">
         <v>0</v>
       </c>
@@ -8093,21 +8024,20 @@
       <c r="M152" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N152" s="3"/>
       <c r="O152" s="1"/>
     </row>
-    <row r="153" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="3">
+    <row r="153" spans="1:15" ht="21" thickBot="1">
+      <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>56</v>
+      <c r="B153" t="s">
+        <v>330</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D153" t="s">
+        <v>54</v>
       </c>
       <c r="E153" s="2">
         <v>70</v>
@@ -8115,12 +8045,9 @@
       <c r="F153" s="2">
         <v>1</v>
       </c>
-      <c r="G153" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-      <c r="J153" s="3"/>
+      <c r="G153" t="s">
+        <v>346</v>
+      </c>
       <c r="K153" s="2">
         <v>0</v>
       </c>
@@ -8130,21 +8057,20 @@
       <c r="M153" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N153" s="3"/>
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="3">
+    <row r="154" spans="1:15" ht="21" thickBot="1">
+      <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>59</v>
+      <c r="B154" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D154" t="s">
+        <v>57</v>
       </c>
       <c r="E154" s="2">
         <v>60</v>
@@ -8152,12 +8078,9 @@
       <c r="F154" s="2">
         <v>1</v>
       </c>
-      <c r="G154" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="G154" t="s">
+        <v>347</v>
+      </c>
       <c r="K154" s="2">
         <v>0</v>
       </c>
@@ -8167,34 +8090,30 @@
       <c r="M154" s="2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N154" s="3"/>
       <c r="O154" s="1"/>
     </row>
-    <row r="155" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="3">
+    <row r="155" spans="1:15" ht="21" thickBot="1">
+      <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" t="s">
+        <v>350</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1</v>
+      </c>
+      <c r="F155" s="2">
+        <v>64</v>
+      </c>
+      <c r="G155" t="s">
         <v>361</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="2">
-        <v>1</v>
-      </c>
-      <c r="F155" s="2">
-        <v>64</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="3"/>
       <c r="K155" s="2">
         <v>0</v>
       </c>
@@ -8204,34 +8123,30 @@
       <c r="M155" s="2">
         <v>1</v>
       </c>
-      <c r="N155" s="3"/>
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="3">
+    <row r="156" spans="1:15" ht="21" thickBot="1">
+      <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
+        <v>64</v>
+      </c>
+      <c r="G156" t="s">
         <v>362</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E156" s="2">
-        <v>1</v>
-      </c>
-      <c r="F156" s="2">
-        <v>64</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="3"/>
       <c r="K156" s="2">
         <v>0</v>
       </c>
@@ -8241,34 +8156,30 @@
       <c r="M156" s="2">
         <v>1</v>
       </c>
-      <c r="N156" s="3"/>
       <c r="O156" s="1"/>
     </row>
-    <row r="157" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="3">
+    <row r="157" spans="1:15" ht="21" thickBot="1">
+      <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" t="s">
+        <v>352</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="2">
+        <v>1</v>
+      </c>
+      <c r="F157" s="2">
+        <v>64</v>
+      </c>
+      <c r="G157" t="s">
         <v>363</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="2">
-        <v>1</v>
-      </c>
-      <c r="F157" s="2">
-        <v>64</v>
-      </c>
-      <c r="G157" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="3"/>
       <c r="K157" s="2">
         <v>0</v>
       </c>
@@ -8278,34 +8189,30 @@
       <c r="M157" s="2">
         <v>1</v>
       </c>
-      <c r="N157" s="3"/>
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="3">
+    <row r="158" spans="1:15" ht="21" thickBot="1">
+      <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" t="s">
+        <v>353</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="2">
+        <v>1</v>
+      </c>
+      <c r="F158" s="2">
+        <v>64</v>
+      </c>
+      <c r="G158" t="s">
         <v>364</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" s="2">
-        <v>1</v>
-      </c>
-      <c r="F158" s="2">
-        <v>64</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
       <c r="K158" s="2">
         <v>0</v>
       </c>
@@ -8315,34 +8222,30 @@
       <c r="M158" s="2">
         <v>1</v>
       </c>
-      <c r="N158" s="3"/>
       <c r="O158" s="1"/>
     </row>
-    <row r="159" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="3">
+    <row r="159" spans="1:15" ht="21" thickBot="1">
+      <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" t="s">
+        <v>354</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>64</v>
+      </c>
+      <c r="G159" t="s">
         <v>365</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" s="2">
-        <v>1</v>
-      </c>
-      <c r="F159" s="2">
-        <v>64</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="3"/>
       <c r="K159" s="2">
         <v>0</v>
       </c>
@@ -8352,34 +8255,30 @@
       <c r="M159" s="2">
         <v>1</v>
       </c>
-      <c r="N159" s="3"/>
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="3">
+    <row r="160" spans="1:15" ht="21" thickBot="1">
+      <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" t="s">
+        <v>355</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
+      </c>
+      <c r="F160" s="2">
+        <v>64</v>
+      </c>
+      <c r="G160" t="s">
         <v>366</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="2">
-        <v>1</v>
-      </c>
-      <c r="F160" s="2">
-        <v>64</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="3"/>
       <c r="K160" s="2">
         <v>0</v>
       </c>
@@ -8389,21 +8288,20 @@
       <c r="M160" s="2">
         <v>1</v>
       </c>
-      <c r="N160" s="3"/>
       <c r="O160" s="1"/>
     </row>
-    <row r="161" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="3">
+    <row r="161" spans="1:15" ht="21" thickBot="1">
+      <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>11</v>
+      <c r="B161" t="s">
+        <v>356</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D161" t="s">
+        <v>10</v>
       </c>
       <c r="E161" s="2">
         <v>5</v>
@@ -8411,12 +8309,9 @@
       <c r="F161" s="2">
         <v>64</v>
       </c>
-      <c r="G161" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
+      <c r="G161" t="s">
+        <v>367</v>
+      </c>
       <c r="K161" s="2">
         <v>0</v>
       </c>
@@ -8426,21 +8321,20 @@
       <c r="M161" s="2">
         <v>1</v>
       </c>
-      <c r="N161" s="3"/>
       <c r="O161" s="1"/>
     </row>
-    <row r="162" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="3">
+    <row r="162" spans="1:15" ht="21" thickBot="1">
+      <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>11</v>
+      <c r="B162" t="s">
+        <v>357</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
       </c>
       <c r="E162" s="2">
         <v>25</v>
@@ -8448,12 +8342,9 @@
       <c r="F162" s="2">
         <v>64</v>
       </c>
-      <c r="G162" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-      <c r="J162" s="3"/>
+      <c r="G162" t="s">
+        <v>368</v>
+      </c>
       <c r="K162" s="2">
         <v>0</v>
       </c>
@@ -8463,21 +8354,20 @@
       <c r="M162" s="2">
         <v>1</v>
       </c>
-      <c r="N162" s="3"/>
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="3">
+    <row r="163" spans="1:15" ht="21" thickBot="1">
+      <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>11</v>
+      <c r="B163" t="s">
+        <v>358</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
       </c>
       <c r="E163" s="2">
         <v>8</v>
@@ -8485,12 +8375,9 @@
       <c r="F163" s="2">
         <v>64</v>
       </c>
-      <c r="G163" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-      <c r="J163" s="3"/>
+      <c r="G163" t="s">
+        <v>369</v>
+      </c>
       <c r="K163" s="2">
         <v>0</v>
       </c>
@@ -8500,21 +8387,20 @@
       <c r="M163" s="2">
         <v>1</v>
       </c>
-      <c r="N163" s="3"/>
       <c r="O163" s="1"/>
     </row>
-    <row r="164" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="3">
+    <row r="164" spans="1:15" ht="21" thickBot="1">
+      <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>11</v>
+      <c r="B164" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D164" t="s">
+        <v>10</v>
       </c>
       <c r="E164" s="2">
         <v>12</v>
@@ -8522,12 +8408,9 @@
       <c r="F164" s="2">
         <v>64</v>
       </c>
-      <c r="G164" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="3"/>
+      <c r="G164" t="s">
+        <v>370</v>
+      </c>
       <c r="K164" s="2">
         <v>0</v>
       </c>
@@ -8537,21 +8420,20 @@
       <c r="M164" s="2">
         <v>1</v>
       </c>
-      <c r="N164" s="3"/>
       <c r="O164" s="1"/>
     </row>
-    <row r="165" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="3">
+    <row r="165" spans="1:15" ht="21" thickBot="1">
+      <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>11</v>
+      <c r="B165" t="s">
+        <v>360</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D165" t="s">
+        <v>10</v>
       </c>
       <c r="E165" s="2">
         <v>40</v>
@@ -8559,12 +8441,9 @@
       <c r="F165" s="2">
         <v>64</v>
       </c>
-      <c r="G165" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-      <c r="J165" s="3"/>
+      <c r="G165" t="s">
+        <v>371</v>
+      </c>
       <c r="K165" s="2">
         <v>0</v>
       </c>
@@ -8574,21 +8453,20 @@
       <c r="M165" s="2">
         <v>1</v>
       </c>
-      <c r="N165" s="3"/>
       <c r="O165" s="1"/>
     </row>
-    <row r="166" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="3">
+    <row r="166" spans="1:15" ht="21" thickBot="1">
+      <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>384</v>
+      <c r="B166" t="s">
+        <v>372</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D166" t="s">
+        <v>373</v>
       </c>
       <c r="E166" s="2">
         <v>50</v>
@@ -8596,12 +8474,9 @@
       <c r="F166" s="2">
         <v>1</v>
       </c>
-      <c r="G166" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
+      <c r="G166" t="s">
+        <v>374</v>
+      </c>
       <c r="K166" s="2">
         <v>0</v>
       </c>
@@ -8611,8 +8486,39 @@
       <c r="M166" s="2">
         <v>1</v>
       </c>
-      <c r="N166" s="3"/>
       <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>375</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D167" t="s">
+        <v>376</v>
+      </c>
+      <c r="E167" s="3">
+        <v>30</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>377</v>
+      </c>
+      <c r="K167" s="3">
+        <v>0</v>
+      </c>
+      <c r="L167" s="3">
+        <v>1</v>
+      </c>
+      <c r="M167" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
